--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="373">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T16:45:11+00:00</t>
+    <t>2024-06-27T06:41:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Example Publisher (http://example.org/example-publisher)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -239,9 +245,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1317,7 +1320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1415,21 +1418,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1469,6 +1472,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1528,7382 +1539,7382 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI40" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI50" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="U69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="V69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="501">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T06:41:39+00:00</t>
+    <t>2024-07-08T06:24:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -446,6 +446,19 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Account.extension:Fallnummer</t>
+  </si>
+  <si>
+    <t>Fallnummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-fallnummer}
+</t>
+  </si>
+  <si>
+    <t>Anzahl der Wiederaufnahmen</t>
+  </si>
+  <si>
     <t>Account.extension:WorkflowStatus</t>
   </si>
   <si>
@@ -498,43 +511,457 @@
     <t>Unique identifier used to reference the account.  Might or might not be intended for human use (e.g. credit card number).</t>
   </si>
   <si>
+    <t xml:space="preserve">value:type.coding.code}
+</t>
+  </si>
+  <si>
     <t>FiveWs.identifier</t>
   </si>
   <si>
     <t>.id</t>
   </si>
   <si>
-    <t>Account.status</t>
-  </si>
-  <si>
-    <t>active | inactive | entered-in-error | on-hold | unknown</t>
-  </si>
-  <si>
-    <t>Indicates whether the account is presently used/usable or not.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains the codes inactive and entered-in-error that mark the Account as not currently valid.</t>
-  </si>
-  <si>
-    <t>Indicates whether the account is available to be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/account-status|5.0.0</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>Account.billingStatus</t>
+    <t>Account.identifier:Aufnahmezahl</t>
+  </si>
+  <si>
+    <t>Aufnahmezahl</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.id</t>
+  </si>
+  <si>
+    <t>Account.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.extension</t>
+  </si>
+  <si>
+    <t>Account.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.use</t>
+  </si>
+  <si>
+    <t>Account.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.type</t>
+  </si>
+  <si>
+    <t>Account.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>https://termgit.elga.gv.at/ValueSet/hl7-at-patientidentifier</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.type.id</t>
+  </si>
+  <si>
+    <t>Account.identifier.type.id</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.type.extension</t>
+  </si>
+  <si>
+    <t>Account.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.type.coding</t>
+  </si>
+  <si>
+    <t>Account.identifier.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.type.coding.id</t>
+  </si>
+  <si>
+    <t>Account.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Account.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.type.coding.system</t>
+  </si>
+  <si>
+    <t>Account.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.type.coding.version</t>
+  </si>
+  <si>
+    <t>Account.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.type.coding.code</t>
+  </si>
+  <si>
+    <t>Account.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cod-1
+</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.type.coding.display</t>
+  </si>
+  <si>
+    <t>Account.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Account.identifier.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.type.text</t>
+  </si>
+  <si>
+    <t>Account.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.system</t>
+  </si>
+  <si>
+    <t>Account.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, an absolute URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.value</t>
+  </si>
+  <si>
+    <t>Account.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [http://hl7.org/fhir/StructureDefinition/rendered-value](http://hl7.org/fhir/extensions/StructureDefinition-rendered-value.html)). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ident-1
+</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.period</t>
+  </si>
+  <si>
+    <t>Account.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Account.identifier:Aufnahmezahl.assigner</t>
+  </si>
+  <si>
+    <t>Account.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.at/fhir/HL7ATCoreProfiles/5.0.0/StructureDefinition/at-core-organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>Account.identifier:Fallnummer</t>
+  </si>
+  <si>
+    <t>Account.status</t>
+  </si>
+  <si>
+    <t>active | inactive | entered-in-error | on-hold | unknown</t>
+  </si>
+  <si>
+    <t>Indicates whether the account is presently used/usable or not.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains the codes inactive and entered-in-error that mark the Account as not currently valid.</t>
+  </si>
+  <si>
+    <t>Indicates whether the account is available to be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/account-status|5.0.0</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>Account.billingStatus</t>
+  </si>
+  <si>
     <t>Tracks the lifecycle of the account through the billing process</t>
   </si>
   <si>
@@ -578,10 +1005,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Human-readable label</t>
   </si>
   <si>
@@ -621,10 +1044,6 @@
   </si>
   <si>
     <t>Account.servicePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>Transaction window</t>
@@ -666,32 +1085,7 @@
     <t>Account.coverage.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Account.coverage.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Account.coverage.modifierExtension</t>
@@ -821,10 +1215,6 @@
   </si>
   <si>
     <t>Account.guarantor.onHold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
   </si>
   <si>
     <t>Credit or other hold applied</t>
@@ -1489,7 +1879,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL69"/>
+  <dimension ref="A1:AL91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1498,8 +1888,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.22265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.22265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.00390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.20703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.41015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1508,7 +1898,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.5390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1517,16 +1907,16 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="68.94140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.80859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.3359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="23.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1534,7 +1924,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="59.35546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2524,7 +2914,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>84</v>
@@ -2542,10 +2932,10 @@
         <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2619,33 +3009,35 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>145</v>
@@ -2653,12 +3045,8 @@
       <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>19</v>
       </c>
@@ -2706,7 +3094,7 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2724,19 +3112,19 @@
         <v>19</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2749,22 +3137,26 @@
         <v>19</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>19</v>
       </c>
@@ -2812,7 +3204,7 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2824,21 +3216,21 @@
         <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2846,32 +3238,30 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>19</v>
@@ -2896,37 +3286,35 @@
         <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>19</v>
@@ -2935,20 +3323,22 @@
         <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>19</v>
       </c>
@@ -2969,13 +3359,13 @@
         <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3002,13 +3392,13 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>19</v>
@@ -3026,13 +3416,13 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>19</v>
@@ -3041,18 +3431,18 @@
         <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>19</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3072,16 +3462,16 @@
         <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3108,68 +3498,68 @@
         <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>19</v>
@@ -3178,18 +3568,20 @@
         <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -3226,79 +3618,81 @@
         <v>19</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>19</v>
       </c>
@@ -3322,13 +3716,13 @@
         <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>19</v>
@@ -3346,13 +3740,13 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>19</v>
@@ -3361,18 +3755,18 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3395,18 +3789,20 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>19</v>
       </c>
@@ -3430,13 +3826,11 @@
         <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>19</v>
@@ -3454,7 +3848,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3469,18 +3863,18 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3491,7 +3885,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>19</v>
@@ -3500,20 +3894,18 @@
         <v>19</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>19</v>
@@ -3562,44 +3954,44 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>205</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>19</v>
@@ -3611,15 +4003,17 @@
         <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>19</v>
@@ -3656,49 +4050,49 @@
         <v>19</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3714,21 +4108,23 @@
         <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>19</v>
       </c>
@@ -3776,7 +4172,7 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3788,57 +4184,53 @@
         <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>19</v>
       </c>
@@ -3886,44 +4278,44 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>129</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>19</v>
@@ -3932,18 +4324,20 @@
         <v>19</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -3980,49 +4374,49 @@
         <v>19</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>225</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4041,24 +4435,26 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>19</v>
@@ -4100,7 +4496,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4118,15 +4514,15 @@
         <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4149,15 +4545,17 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>19</v>
@@ -4206,7 +4604,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4224,15 +4622,15 @@
         <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4240,7 +4638,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>84</v>
@@ -4255,22 +4653,24 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>19</v>
@@ -4312,7 +4712,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4321,7 +4721,7 @@
         <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>96</v>
@@ -4330,15 +4730,15 @@
         <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4349,7 +4749,7 @@
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>19</v>
@@ -4358,19 +4758,21 @@
         <v>19</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>19</v>
       </c>
@@ -4424,10 +4826,10 @@
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>96</v>
@@ -4436,15 +4838,15 @@
         <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4464,19 +4866,23 @@
         <v>19</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
       </c>
@@ -4524,7 +4930,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4533,35 +4939,35 @@
         <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>211</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>19</v>
@@ -4570,21 +4976,23 @@
         <v>19</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
       </c>
@@ -4632,68 +5040,68 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>211</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>148</v>
+        <v>267</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -4706,7 +5114,7 @@
         <v>19</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>19</v>
@@ -4742,33 +5150,33 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>129</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4776,7 +5184,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>84</v>
@@ -4788,18 +5196,20 @@
         <v>19</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -4812,7 +5222,7 @@
         <v>19</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>19</v>
+        <v>276</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>19</v>
@@ -4848,16 +5258,16 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>19</v>
+        <v>278</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>96</v>
@@ -4866,15 +5276,15 @@
         <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4894,16 +5304,16 @@
         <v>19</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4954,7 +5364,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -4972,15 +5382,15 @@
         <v>19</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5000,18 +5410,20 @@
         <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -5060,7 +5472,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5078,17 +5490,19 @@
         <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>263</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>19</v>
       </c>
@@ -5097,7 +5511,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
@@ -5109,13 +5523,13 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>265</v>
+        <v>156</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>266</v>
+        <v>157</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5166,7 +5580,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5178,21 +5592,21 @@
         <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>19</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5200,7 +5614,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>84</v>
@@ -5209,21 +5623,23 @@
         <v>19</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -5248,13 +5664,13 @@
         <v>19</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>19</v>
+        <v>301</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>19</v>
@@ -5272,44 +5688,44 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>211</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>19</v>
@@ -5318,20 +5734,18 @@
         <v>19</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>19</v>
@@ -5356,13 +5770,13 @@
         <v>19</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>19</v>
+        <v>308</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>19</v>
+        <v>309</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>19</v>
@@ -5380,69 +5794,65 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>215</v>
+        <v>304</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>211</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>19</v>
       </c>
@@ -5466,13 +5876,13 @@
         <v>19</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>19</v>
+        <v>314</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>19</v>
@@ -5490,37 +5900,37 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>129</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>19</v>
+        <v>318</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5536,16 +5946,16 @@
         <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5596,7 +6006,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5611,29 +6021,29 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>19</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>19</v>
@@ -5645,15 +6055,17 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -5678,11 +6090,13 @@
         <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="Y39" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z39" t="s" s="2">
-        <v>279</v>
+        <v>19</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>19</v>
@@ -5700,33 +6114,33 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>19</v>
+        <v>329</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>19</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5746,18 +6160,20 @@
         <v>19</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>282</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -5806,7 +6222,7 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5815,24 +6231,24 @@
         <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>19</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>19</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5852,18 +6268,20 @@
         <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>165</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -5888,13 +6306,13 @@
         <v>19</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>287</v>
+        <v>19</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>289</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>19</v>
@@ -5912,7 +6330,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -5930,15 +6348,15 @@
         <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>19</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5961,13 +6379,13 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>291</v>
+        <v>165</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>292</v>
+        <v>166</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6018,7 +6436,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>290</v>
+        <v>167</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6027,28 +6445,28 @@
         <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6067,15 +6485,17 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -6100,10 +6520,10 @@
         <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>296</v>
+        <v>19</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>19</v>
@@ -6124,7 +6544,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>293</v>
+        <v>175</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6136,25 +6556,25 @@
         <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6167,22 +6587,26 @@
         <v>19</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>19</v>
       </c>
@@ -6230,7 +6654,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6242,21 +6666,21 @@
         <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>300</v>
+        <v>137</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6264,7 +6688,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>84</v>
@@ -6276,16 +6700,16 @@
         <v>19</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>180</v>
+        <v>351</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>207</v>
+        <v>352</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>208</v>
+        <v>353</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6336,44 +6760,44 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>209</v>
+        <v>350</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>211</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>144</v>
+        <v>356</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>19</v>
@@ -6382,19 +6806,19 @@
         <v>19</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>357</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>213</v>
+        <v>358</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>214</v>
+        <v>359</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>147</v>
+        <v>360</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6444,69 +6868,65 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>215</v>
+        <v>355</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>211</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>131</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>218</v>
+        <v>364</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>19</v>
       </c>
@@ -6554,33 +6974,33 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>220</v>
+        <v>362</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>129</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>304</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>304</v>
+        <v>367</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6600,16 +7020,16 @@
         <v>19</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>228</v>
+        <v>368</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6660,7 +7080,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>304</v>
+        <v>367</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -6678,26 +7098,26 @@
         <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>19</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>307</v>
+        <v>372</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>307</v>
+        <v>372</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
@@ -6706,16 +7126,16 @@
         <v>19</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>309</v>
+        <v>373</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>310</v>
+        <v>374</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6742,11 +7162,13 @@
         <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>311</v>
+        <v>19</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>19</v>
@@ -6764,16 +7186,16 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>307</v>
+        <v>372</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>312</v>
+        <v>19</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>96</v>
@@ -6782,15 +7204,15 @@
         <v>19</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>19</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6813,13 +7235,13 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>314</v>
+        <v>165</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>315</v>
+        <v>166</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6870,7 +7292,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -6879,28 +7301,28 @@
         <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>312</v>
+        <v>168</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>316</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -6919,15 +7341,17 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -6952,10 +7376,10 @@
         <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>319</v>
+        <v>19</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>19</v>
@@ -6976,7 +7400,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>316</v>
+        <v>175</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -6988,25 +7412,25 @@
         <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>378</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>320</v>
+        <v>378</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7019,22 +7443,26 @@
         <v>19</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>19</v>
       </c>
@@ -7058,10 +7486,10 @@
         <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>296</v>
+        <v>19</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>19</v>
@@ -7082,7 +7510,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7094,21 +7522,21 @@
         <v>19</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7116,10 +7544,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>19</v>
@@ -7128,16 +7556,16 @@
         <v>19</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>324</v>
+        <v>381</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7188,13 +7616,13 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>19</v>
@@ -7206,15 +7634,15 @@
         <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>19</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7225,7 +7653,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>19</v>
@@ -7237,13 +7665,13 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7294,13 +7722,13 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>19</v>
@@ -7312,15 +7740,15 @@
         <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>19</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>329</v>
+        <v>388</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>329</v>
+        <v>388</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7343,13 +7771,13 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>180</v>
+        <v>282</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>207</v>
+        <v>389</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>208</v>
+        <v>390</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7400,7 +7828,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>209</v>
+        <v>388</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7409,28 +7837,28 @@
         <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>211</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>330</v>
+        <v>392</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>330</v>
+        <v>392</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7446,20 +7874,18 @@
         <v>19</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>338</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>213</v>
+        <v>393</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>19</v>
@@ -7508,7 +7934,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>215</v>
+        <v>392</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7520,57 +7946,53 @@
         <v>19</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>137</v>
+        <v>395</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>211</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>331</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>331</v>
+        <v>396</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>19</v>
       </c>
@@ -7618,44 +8040,44 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>129</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>332</v>
+        <v>397</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>332</v>
+        <v>397</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>19</v>
@@ -7667,15 +8089,17 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>333</v>
+        <v>172</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -7700,13 +8124,13 @@
         <v>19</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>336</v>
+        <v>19</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>19</v>
@@ -7724,65 +8148,69 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>332</v>
+        <v>175</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>337</v>
+        <v>398</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>337</v>
+        <v>398</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>338</v>
+        <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
       </c>
@@ -7830,33 +8258,33 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7879,13 +8307,13 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>165</v>
+        <v>357</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -7912,11 +8340,13 @@
         <v>19</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>344</v>
+        <v>19</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>19</v>
@@ -7934,7 +8364,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -7957,21 +8387,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>345</v>
+        <v>402</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>345</v>
+        <v>402</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>19</v>
+        <v>403</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>19</v>
@@ -7980,16 +8410,16 @@
         <v>19</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>201</v>
+        <v>404</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>346</v>
+        <v>405</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>347</v>
+        <v>406</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8016,13 +8446,11 @@
         <v>19</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>19</v>
+        <v>407</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>19</v>
@@ -8040,16 +8468,16 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>345</v>
+        <v>402</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>19</v>
+        <v>408</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>96</v>
@@ -8063,10 +8491,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>348</v>
+        <v>409</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>348</v>
+        <v>409</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8089,13 +8517,13 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>207</v>
+        <v>411</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>208</v>
+        <v>401</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8146,7 +8574,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>209</v>
+        <v>409</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8155,28 +8583,28 @@
         <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>210</v>
+        <v>408</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>211</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>349</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>349</v>
+        <v>412</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8195,17 +8623,15 @@
         <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>213</v>
+        <v>413</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>19</v>
@@ -8230,13 +8656,13 @@
         <v>19</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>19</v>
+        <v>415</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>19</v>
+        <v>416</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>19</v>
+        <v>417</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>19</v>
@@ -8254,7 +8680,7 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>215</v>
+        <v>412</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8266,57 +8692,53 @@
         <v>19</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>211</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>350</v>
+        <v>418</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>350</v>
+        <v>418</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>218</v>
+        <v>419</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>19</v>
       </c>
@@ -8364,33 +8786,33 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>220</v>
+        <v>418</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8401,7 +8823,7 @@
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>19</v>
@@ -8413,13 +8835,13 @@
         <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>352</v>
+        <v>422</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>353</v>
+        <v>423</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8446,13 +8868,13 @@
         <v>19</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>355</v>
+        <v>424</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>356</v>
+        <v>19</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>19</v>
@@ -8470,13 +8892,13 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>19</v>
@@ -8493,10 +8915,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>357</v>
+        <v>425</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>357</v>
+        <v>425</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8507,7 +8929,7 @@
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>19</v>
@@ -8516,16 +8938,16 @@
         <v>19</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>165</v>
+        <v>338</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>359</v>
+        <v>427</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8552,13 +8974,13 @@
         <v>19</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>354</v>
+        <v>19</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>355</v>
+        <v>19</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>19</v>
@@ -8576,19 +8998,19 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>357</v>
+        <v>425</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>428</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>19</v>
@@ -8599,10 +9021,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>361</v>
+        <v>429</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>361</v>
+        <v>429</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8625,13 +9047,13 @@
         <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>362</v>
+        <v>165</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>363</v>
+        <v>166</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8682,7 +9104,7 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>361</v>
+        <v>167</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -8691,35 +9113,35 @@
         <v>84</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>19</v>
@@ -8731,15 +9153,17 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>365</v>
+        <v>131</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>366</v>
+        <v>172</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>19</v>
@@ -8788,67 +9212,69 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>364</v>
+        <v>175</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>368</v>
+        <v>431</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>368</v>
+        <v>431</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>369</v>
+        <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>19</v>
       </c>
@@ -8896,24 +9322,2366 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AK69" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AK70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Y71" s="2"/>
+      <c r="Z71" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y82" s="2"/>
+      <c r="Z82" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="514">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T06:24:07+00:00</t>
+    <t>2024-07-11T13:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -456,7 +456,7 @@
 </t>
   </si>
   <si>
-    <t>Anzahl der Wiederaufnahmen</t>
+    <t>MOPED Extension für die Anzahl der Wiederaufnahmen</t>
   </si>
   <si>
     <t>Account.extension:WorkflowStatus</t>
@@ -475,6 +475,54 @@
     <t>MOPED Extension für den Workflowstatus. Dieser beschreibt den Zustand in dem sich der administrative Fall derzeit befindet</t>
   </si>
   <si>
+    <t>Account.extension:VerdachtArbeitsSchuelerunfall</t>
+  </si>
+  <si>
+    <t>VerdachtArbeitsSchuelerunfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-VerdachtArbeitsSchuelerunfall}
+</t>
+  </si>
+  <si>
+    <t>Verdacht auf Arbeits- oder Schuelerunfall</t>
+  </si>
+  <si>
+    <t>MOPED Extension für den Verdacht auf einen Arbeits- oder Schuelerunfall.</t>
+  </si>
+  <si>
+    <t>Account.extension:VerdachtFremdverschulden</t>
+  </si>
+  <si>
+    <t>VerdachtFremdverschulden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-VerdachtFremdverschulden}
+</t>
+  </si>
+  <si>
+    <t>Verdacht auf Fremdverschulden</t>
+  </si>
+  <si>
+    <t>MOPED Extension für den Verdacht auf Fremdverschulden</t>
+  </si>
+  <si>
+    <t>Account.extension:TageOhneKostenbeitrag</t>
+  </si>
+  <si>
+    <t>TageOhneKostenbeitrag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-TageOhneKostenbeitrag}
+</t>
+  </si>
+  <si>
+    <t>Tage ohne Einhebung des Kostenbeitrags</t>
+  </si>
+  <si>
+    <t>Anzahl der Tage, für welche kein Kostenbeitrag seitens der Krankenanstalt eingehoben wurde</t>
+  </si>
+  <si>
     <t>Account.modifierExtension</t>
   </si>
   <si>
@@ -930,9 +978,6 @@
   </si>
   <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>Account.identifier:Fallnummer</t>
   </si>
   <si>
     <t>Account.status</t>
@@ -1146,10 +1191,6 @@
   </si>
   <si>
     <t>Account.owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Entity managing the Account</t>
@@ -1879,7 +1920,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL91"/>
+  <dimension ref="A1:AL93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1890,7 +1931,7 @@
   <cols>
     <col min="1" max="1" width="55.00390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.20703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.41015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="28.96484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1898,7 +1939,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.5390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.33984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3120,43 +3161,41 @@
         <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>19</v>
       </c>
@@ -3204,7 +3243,7 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3222,17 +3261,19 @@
         <v>19</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>19</v>
       </c>
@@ -3241,7 +3282,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>19</v>
@@ -3250,16 +3291,16 @@
         <v>19</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3298,17 +3339,19 @@
         <v>19</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AC13" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3320,24 +3363,24 @@
         <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>160</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>19</v>
@@ -3356,16 +3399,16 @@
         <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3416,7 +3459,7 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3428,53 +3471,57 @@
         <v>19</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>160</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>19</v>
       </c>
@@ -3522,37 +3569,37 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3568,20 +3615,18 @@
         <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -3618,11 +3663,9 @@
         <v>19</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>19</v>
       </c>
@@ -3630,7 +3673,7 @@
         <v>135</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3642,13 +3685,13 @@
         <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
@@ -3656,9 +3699,11 @@
         <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>19</v>
       </c>
@@ -3673,26 +3718,22 @@
         <v>19</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>19</v>
       </c>
@@ -3716,13 +3757,13 @@
         <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>19</v>
@@ -3740,13 +3781,13 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>19</v>
@@ -3755,18 +3796,18 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3786,23 +3827,19 @@
         <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>19</v>
       </c>
@@ -3826,11 +3863,13 @@
         <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>19</v>
@@ -3848,7 +3887,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3857,35 +3896,35 @@
         <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>19</v>
@@ -3897,15 +3936,17 @@
         <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="M19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>19</v>
@@ -3942,79 +3983,81 @@
         <v>19</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>19</v>
       </c>
@@ -4038,57 +4081,57 @@
         <v>19</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>169</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4099,7 +4142,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>19</v>
@@ -4111,19 +4154,19 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>19</v>
@@ -4148,13 +4191,11 @@
         <v>19</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>19</v>
@@ -4172,13 +4213,13 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>19</v>
@@ -4190,15 +4231,15 @@
         <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4224,10 +4265,10 @@
         <v>86</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4278,7 +4319,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4287,7 +4328,7 @@
         <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>19</v>
@@ -4296,19 +4337,19 @@
         <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4330,13 +4371,13 @@
         <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4377,7 +4418,7 @@
         <v>134</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>19</v>
@@ -4386,7 +4427,7 @@
         <v>135</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4404,15 +4445,15 @@
         <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4423,7 +4464,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>19</v>
@@ -4435,26 +4476,26 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>19</v>
@@ -4496,13 +4537,13 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>19</v>
@@ -4514,15 +4555,15 @@
         <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4542,20 +4583,18 @@
         <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>223</v>
+        <v>86</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>19</v>
@@ -4604,7 +4643,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4613,35 +4652,35 @@
         <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>228</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>19</v>
@@ -4650,27 +4689,27 @@
         <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>19</v>
@@ -4700,45 +4739,45 @@
         <v>19</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>237</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4761,24 +4800,26 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>19</v>
@@ -4820,7 +4861,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4829,7 +4870,7 @@
         <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>96</v>
@@ -4838,15 +4879,15 @@
         <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4869,20 +4910,18 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>19</v>
       </c>
@@ -4930,7 +4969,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4948,15 +4987,15 @@
         <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4964,7 +5003,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>84</v>
@@ -4979,26 +5018,24 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>19</v>
@@ -5040,7 +5077,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5049,7 +5086,7 @@
         <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>96</v>
@@ -5058,15 +5095,15 @@
         <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5089,19 +5126,17 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -5114,7 +5149,7 @@
         <v>19</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>19</v>
@@ -5150,7 +5185,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5159,7 +5194,7 @@
         <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>96</v>
@@ -5168,15 +5203,15 @@
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5199,18 +5234,20 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
       </c>
@@ -5222,7 +5259,7 @@
         <v>19</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>276</v>
+        <v>19</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>19</v>
@@ -5258,7 +5295,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5267,7 +5304,7 @@
         <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>278</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>96</v>
@@ -5276,15 +5313,15 @@
         <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5307,16 +5344,20 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>19</v>
       </c>
@@ -5364,7 +5405,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5382,15 +5423,15 @@
         <v>19</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5413,18 +5454,20 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>289</v>
+        <v>98</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>19</v>
       </c>
@@ -5436,7 +5479,7 @@
         <v>19</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>19</v>
@@ -5472,7 +5515,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5490,19 +5533,17 @@
         <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>19</v>
       </c>
@@ -5523,15 +5564,17 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>156</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -5544,7 +5587,7 @@
         <v>19</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>19</v>
@@ -5580,30 +5623,30 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>154</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>19</v>
+        <v>293</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>160</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>296</v>
@@ -5614,7 +5657,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>84</v>
@@ -5623,23 +5666,21 @@
         <v>19</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N35" t="s" s="2">
         <v>299</v>
       </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -5664,34 +5705,34 @@
         <v>19</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>84</v>
@@ -5703,18 +5744,18 @@
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>302</v>
+        <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5737,7 +5778,7 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>305</v>
@@ -5745,7 +5786,9 @@
       <c r="M36" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>19</v>
@@ -5770,31 +5813,31 @@
         <v>19</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5812,7 +5855,7 @@
         <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>19</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37">
@@ -5828,7 +5871,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>84</v>
@@ -5837,13 +5880,13 @@
         <v>19</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>311</v>
@@ -5851,7 +5894,9 @@
       <c r="M37" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>19</v>
@@ -5876,13 +5921,13 @@
         <v>19</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>307</v>
+        <v>108</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>19</v>
@@ -5903,7 +5948,7 @@
         <v>310</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>84</v>
@@ -5915,22 +5960,22 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>318</v>
+        <v>19</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5949,7 +5994,7 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>319</v>
@@ -5982,13 +6027,13 @@
         <v>19</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>19</v>
+        <v>322</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>19</v>
+        <v>323</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>19</v>
@@ -6006,7 +6051,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6021,29 +6066,29 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>322</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>324</v>
+        <v>19</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>19</v>
@@ -6055,17 +6100,15 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>328</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -6090,13 +6133,13 @@
         <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>19</v>
@@ -6114,13 +6157,13 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>19</v>
@@ -6144,7 +6187,7 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6163,17 +6206,15 @@
         <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N40" t="s" s="2">
         <v>334</v>
       </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -6252,7 +6293,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>19</v>
+        <v>338</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6271,16 +6312,16 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6345,18 +6386,18 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>19</v>
+        <v>343</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6376,18 +6417,20 @@
         <v>19</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>165</v>
+        <v>346</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -6436,7 +6479,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>167</v>
+        <v>345</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6445,28 +6488,28 @@
         <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>19</v>
+        <v>349</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>169</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6482,19 +6525,19 @@
         <v>19</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>172</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>151</v>
+        <v>355</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6544,7 +6587,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6556,57 +6599,53 @@
         <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>169</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>346</v>
+        <v>19</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>347</v>
+        <v>180</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>19</v>
       </c>
@@ -6654,44 +6693,44 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>349</v>
+        <v>182</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
@@ -6700,18 +6739,20 @@
         <v>19</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>351</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>352</v>
+        <v>187</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -6760,67 +6801,69 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>357</v>
+        <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>19</v>
       </c>
@@ -6868,33 +6911,33 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>361</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6902,7 +6945,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>84</v>
@@ -6917,13 +6960,13 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6974,10 +7017,10 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>84</v>
@@ -6992,19 +7035,19 @@
         <v>19</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>19</v>
+        <v>370</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7023,15 +7066,17 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -7080,7 +7125,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7098,15 +7143,15 @@
         <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7117,7 +7162,7 @@
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
@@ -7126,16 +7171,16 @@
         <v>19</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7186,13 +7231,13 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>19</v>
@@ -7204,15 +7249,15 @@
         <v>19</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7232,16 +7277,16 @@
         <v>19</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>223</v>
+        <v>381</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>165</v>
+        <v>382</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>166</v>
+        <v>383</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7292,7 +7337,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>167</v>
+        <v>380</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7301,28 +7346,28 @@
         <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>169</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7341,17 +7386,15 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>172</v>
+        <v>386</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -7400,7 +7443,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>175</v>
+        <v>385</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7412,57 +7455,53 @@
         <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>169</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>346</v>
+        <v>19</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>347</v>
+        <v>180</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>19</v>
       </c>
@@ -7510,44 +7549,44 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>349</v>
+        <v>182</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>19</v>
@@ -7559,15 +7598,17 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>380</v>
+        <v>131</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>381</v>
+        <v>187</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -7616,65 +7657,69 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>379</v>
+        <v>190</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>383</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>247</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
       </c>
@@ -7722,33 +7767,33 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>387</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7756,7 +7801,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>84</v>
@@ -7771,13 +7816,13 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>282</v>
+        <v>393</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7828,10 +7873,10 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>84</v>
@@ -7846,15 +7891,15 @@
         <v>19</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7865,7 +7910,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>19</v>
@@ -7874,16 +7919,16 @@
         <v>19</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7934,33 +7979,33 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>395</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>19</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7983,13 +8028,13 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>165</v>
+        <v>402</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>166</v>
+        <v>403</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8040,7 +8085,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>167</v>
+        <v>401</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8049,28 +8094,28 @@
         <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>169</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8086,20 +8131,18 @@
         <v>19</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -8148,7 +8191,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>175</v>
+        <v>405</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8160,57 +8203,53 @@
         <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>137</v>
+        <v>408</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>169</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>346</v>
+        <v>19</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>347</v>
+        <v>180</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>19</v>
       </c>
@@ -8258,44 +8297,44 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>349</v>
+        <v>182</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>19</v>
@@ -8307,15 +8346,17 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>357</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>400</v>
+        <v>187</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -8364,65 +8405,69 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>399</v>
+        <v>190</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>19</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>403</v>
+        <v>360</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>404</v>
+        <v>131</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>19</v>
       </c>
@@ -8446,11 +8491,13 @@
         <v>19</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="Y61" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z61" t="s" s="2">
-        <v>407</v>
+        <v>19</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>19</v>
@@ -8468,33 +8515,33 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>408</v>
+        <v>19</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8517,13 +8564,13 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8574,7 +8621,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8583,7 +8630,7 @@
         <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>408</v>
+        <v>19</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>96</v>
@@ -8597,21 +8644,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>19</v>
+        <v>416</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>19</v>
@@ -8620,16 +8667,16 @@
         <v>19</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>188</v>
+        <v>417</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8656,40 +8703,38 @@
         <v>19</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y63" s="2"/>
+      <c r="Z63" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="AG63" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>19</v>
+        <v>421</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>96</v>
@@ -8703,10 +8748,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8729,13 +8774,13 @@
         <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>247</v>
+        <v>423</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8786,7 +8831,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -8795,7 +8840,7 @@
         <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>19</v>
+        <v>421</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>96</v>
@@ -8809,10 +8854,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8835,13 +8880,13 @@
         <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8868,13 +8913,13 @@
         <v>19</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>307</v>
+        <v>428</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>19</v>
+        <v>430</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>19</v>
@@ -8892,7 +8937,7 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -8915,10 +8960,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8929,7 +8974,7 @@
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>19</v>
@@ -8938,16 +8983,16 @@
         <v>19</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8998,19 +9043,19 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>428</v>
+        <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>19</v>
@@ -9021,10 +9066,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9035,7 +9080,7 @@
         <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>19</v>
@@ -9047,13 +9092,13 @@
         <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>165</v>
+        <v>435</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>166</v>
+        <v>436</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9080,10 +9125,10 @@
         <v>19</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>19</v>
+        <v>437</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>19</v>
@@ -9104,37 +9149,37 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>167</v>
+        <v>434</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>169</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9150,20 +9195,18 @@
         <v>19</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>172</v>
+        <v>439</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>19</v>
@@ -9212,7 +9255,7 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>175</v>
+        <v>438</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9224,57 +9267,53 @@
         <v>19</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>137</v>
+        <v>441</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>169</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>346</v>
+        <v>19</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>347</v>
+        <v>180</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>19</v>
       </c>
@@ -9322,44 +9361,44 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>349</v>
+        <v>182</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>19</v>
@@ -9371,15 +9410,17 @@
         <v>19</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>357</v>
+        <v>131</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>433</v>
+        <v>187</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>19</v>
@@ -9428,65 +9469,69 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>432</v>
+        <v>190</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>19</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>403</v>
+        <v>360</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>436</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>437</v>
+        <v>361</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>19</v>
       </c>
@@ -9510,11 +9555,13 @@
         <v>19</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="Y71" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z71" t="s" s="2">
-        <v>439</v>
+        <v>19</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>19</v>
@@ -9532,33 +9579,33 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>435</v>
+        <v>363</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>440</v>
+        <v>19</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9581,13 +9628,13 @@
         <v>19</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9638,7 +9685,7 @@
         <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9647,7 +9694,7 @@
         <v>84</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>440</v>
+        <v>19</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>96</v>
@@ -9661,21 +9708,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>19</v>
+        <v>416</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>19</v>
@@ -9684,16 +9731,16 @@
         <v>19</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>188</v>
+        <v>449</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9720,13 +9767,11 @@
         <v>19</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>19</v>
+        <v>452</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>19</v>
@@ -9744,16 +9789,16 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>19</v>
+        <v>453</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>96</v>
@@ -9767,10 +9812,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9781,7 +9826,7 @@
         <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>19</v>
@@ -9793,13 +9838,13 @@
         <v>19</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>188</v>
+        <v>423</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9826,10 +9871,10 @@
         <v>19</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>424</v>
+        <v>19</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>19</v>
@@ -9850,16 +9895,16 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>19</v>
+        <v>453</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>96</v>
@@ -9873,10 +9918,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9896,16 +9941,16 @@
         <v>19</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>451</v>
+        <v>203</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9932,10 +9977,10 @@
         <v>19</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>19</v>
+        <v>460</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>19</v>
@@ -9956,7 +10001,7 @@
         <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -9979,10 +10024,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10005,13 +10050,13 @@
         <v>19</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>338</v>
+        <v>203</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10038,10 +10083,10 @@
         <v>19</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>19</v>
+        <v>437</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>19</v>
@@ -10062,7 +10107,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10085,10 +10130,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10099,7 +10144,7 @@
         <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>19</v>
@@ -10108,16 +10153,16 @@
         <v>19</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>223</v>
+        <v>464</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>165</v>
+        <v>465</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>166</v>
+        <v>466</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10168,37 +10213,37 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>167</v>
+        <v>463</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>169</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10217,17 +10262,15 @@
         <v>19</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>172</v>
+        <v>468</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>19</v>
@@ -10276,7 +10319,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>175</v>
+        <v>467</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10288,57 +10331,53 @@
         <v>19</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>169</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>346</v>
+        <v>19</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>347</v>
+        <v>180</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>19</v>
       </c>
@@ -10386,44 +10425,44 @@
         <v>19</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>349</v>
+        <v>182</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>19</v>
@@ -10435,15 +10474,17 @@
         <v>19</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>19</v>
@@ -10468,13 +10509,13 @@
         <v>19</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>463</v>
+        <v>19</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>464</v>
+        <v>19</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>19</v>
@@ -10492,65 +10533,69 @@
         <v>19</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>460</v>
+        <v>190</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>19</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>466</v>
+        <v>131</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>467</v>
+        <v>361</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>19</v>
       </c>
@@ -10598,33 +10643,33 @@
         <v>19</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>465</v>
+        <v>363</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10647,13 +10692,13 @@
         <v>19</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10680,11 +10725,13 @@
         <v>19</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Y82" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="Z82" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>19</v>
@@ -10702,7 +10749,7 @@
         <v>19</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -10725,10 +10772,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10736,10 +10783,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>19</v>
@@ -10751,13 +10798,13 @@
         <v>19</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>338</v>
+        <v>479</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10808,13 +10855,13 @@
         <v>19</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>19</v>
@@ -10831,10 +10878,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10857,13 +10904,13 @@
         <v>19</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>165</v>
+        <v>483</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>166</v>
+        <v>484</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10890,13 +10937,11 @@
         <v>19</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>19</v>
+        <v>485</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>19</v>
@@ -10914,7 +10959,7 @@
         <v>19</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>167</v>
+        <v>482</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -10923,28 +10968,28 @@
         <v>84</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>169</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -10963,17 +11008,15 @@
         <v>19</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>172</v>
+        <v>487</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>19</v>
@@ -11022,7 +11065,7 @@
         <v>19</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>175</v>
+        <v>486</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11034,57 +11077,53 @@
         <v>19</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>169</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>346</v>
+        <v>19</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>347</v>
+        <v>180</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>19</v>
       </c>
@@ -11132,44 +11171,44 @@
         <v>19</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>349</v>
+        <v>182</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>19</v>
@@ -11181,15 +11220,17 @@
         <v>19</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>19</v>
@@ -11214,13 +11255,13 @@
         <v>19</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>482</v>
+        <v>19</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>484</v>
+        <v>19</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>19</v>
@@ -11238,65 +11279,69 @@
         <v>19</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>479</v>
+        <v>190</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>19</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>486</v>
+        <v>361</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>19</v>
       </c>
@@ -11320,13 +11365,13 @@
         <v>19</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>482</v>
+        <v>19</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>488</v>
+        <v>19</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>19</v>
@@ -11344,33 +11389,33 @@
         <v>19</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>485</v>
+        <v>363</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11393,13 +11438,13 @@
         <v>19</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11426,13 +11471,13 @@
         <v>19</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>19</v>
+        <v>495</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>19</v>
+        <v>496</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>19</v>
+        <v>497</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>19</v>
@@ -11450,7 +11495,7 @@
         <v>19</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
@@ -11473,10 +11518,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11484,7 +11529,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>84</v>
@@ -11499,13 +11544,13 @@
         <v>19</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>493</v>
+        <v>203</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11532,13 +11577,13 @@
         <v>19</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>19</v>
+        <v>495</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>19</v>
+        <v>496</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>19</v>
+        <v>501</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>19</v>
@@ -11556,10 +11601,10 @@
         <v>19</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>84</v>
@@ -11579,10 +11624,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11605,17 +11650,15 @@
         <v>19</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>497</v>
+        <v>262</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>19</v>
@@ -11664,7 +11707,7 @@
         <v>19</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
@@ -11682,6 +11725,220 @@
         <v>19</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T13:07:17+00:00</t>
+    <t>2024-07-15T09:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T09:40:45+00:00</t>
+    <t>2024-07-16T10:33:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-16T10:33:51+00:00</t>
+    <t>2024-07-19T05:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1368,7 +1368,7 @@
     <t>Diagnosis present on Admission</t>
   </si>
   <si>
-    <t>Was the Diagnosis present on Admission in the related Encounter.</t>
+    <t>Gibt an ob die Diagnose bereits bei Aufnahme in den stationären Aufenthalt vorhanden war</t>
   </si>
   <si>
     <t>Account.diagnosis.packageCode</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T05:43:00+00:00</t>
+    <t>2024-07-31T11:45:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-31T11:45:17+00:00</t>
+    <t>2024-08-01T08:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T08:50:18+00:00</t>
+    <t>2024-08-01T13:41:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T13:41:58+00:00</t>
+    <t>2024-08-06T11:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T11:00:40+00:00</t>
+    <t>2024-08-06T12:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:10:21+00:00</t>
+    <t>2024-08-07T21:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T21:51:51+00:00</t>
+    <t>2024-09-03T06:35:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:35:21+00:00</t>
+    <t>2024-09-03T06:46:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:46:02+00:00</t>
+    <t>2024-09-05T05:58:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T05:58:31+00:00</t>
+    <t>2024-09-10T13:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T13:26:38+00:00</t>
+    <t>2024-09-11T18:39:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T18:39:22+00:00</t>
+    <t>2024-09-12T09:13:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="388">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T09:13:24+00:00</t>
+    <t>2024-09-12T16:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -446,19 +446,6 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Account.extension:Fallnummer</t>
-  </si>
-  <si>
-    <t>Fallnummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-fallnummer}
-</t>
-  </si>
-  <si>
-    <t>MOPED Extension für die Anzahl der Wiederaufnahmen</t>
-  </si>
-  <si>
     <t>Account.extension:WorkflowStatus</t>
   </si>
   <si>
@@ -559,536 +546,133 @@
     <t>Unique identifier used to reference the account.  Might or might not be intended for human use (e.g. credit card number).</t>
   </si>
   <si>
-    <t xml:space="preserve">value:type.coding.code}
-</t>
-  </si>
-  <si>
     <t>FiveWs.identifier</t>
   </si>
   <si>
     <t>.id</t>
   </si>
   <si>
-    <t>Account.identifier:Aufnahmezahl</t>
-  </si>
-  <si>
-    <t>Aufnahmezahl</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.id</t>
-  </si>
-  <si>
-    <t>Account.identifier.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.extension</t>
-  </si>
-  <si>
-    <t>Account.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.use</t>
-  </si>
-  <si>
-    <t>Account.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.type</t>
-  </si>
-  <si>
-    <t>Account.identifier.type</t>
+    <t>Account.status</t>
+  </si>
+  <si>
+    <t>active | inactive | entered-in-error | on-hold | unknown</t>
+  </si>
+  <si>
+    <t>Indicates whether the account is presently used/usable or not.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains the codes inactive and entered-in-error that mark the Account as not currently valid.</t>
+  </si>
+  <si>
+    <t>Indicates whether the account is available to be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/account-status|5.0.0</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>Account.billingStatus</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>https://termgit.elga.gv.at/ValueSet/hl7-at-patientidentifier</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.type.id</t>
-  </si>
-  <si>
-    <t>Account.identifier.type.id</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.type.extension</t>
-  </si>
-  <si>
-    <t>Account.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.type.coding</t>
-  </si>
-  <si>
-    <t>Account.identifier.type.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
+    <t>Tracks the lifecycle of the account through the billing process</t>
+  </si>
+  <si>
+    <t>The BillingStatus tracks the lifecycle of the account through the billing process. It indicates how transactions are treated when they are allocated to the account.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Indicates whether the account is available to be used for billing purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/account-billing-status</t>
+  </si>
+  <si>
+    <t>Account.type</t>
+  </si>
+  <si>
+    <t>E.g. patient, expense, depreciation</t>
+  </si>
+  <si>
+    <t>Categorizes the account for reporting and searching purposes.</t>
+  </si>
+  <si>
+    <t>The usage type of this account, permits categorization of accounts.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/account-type</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>Account.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title
 </t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.type.coding.id</t>
-  </si>
-  <si>
-    <t>Account.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Account.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.type.coding.system</t>
-  </si>
-  <si>
-    <t>Account.identifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.type.coding.version</t>
-  </si>
-  <si>
-    <t>Account.identifier.type.coding.version</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.type.coding.code</t>
-  </si>
-  <si>
-    <t>Account.identifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>VN</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cod-1
+    <t>Human-readable label</t>
+  </si>
+  <si>
+    <t>Name used for the account when displaying it to humans in reports, etc.</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>.title</t>
+  </si>
+  <si>
+    <t>Account.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target
 </t>
   </si>
   <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.type.coding.display</t>
-  </si>
-  <si>
-    <t>Account.identifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Account.identifier.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">Reference(http://hl7.at/fhir/HL7ATCoreProfiles/5.0.0/StructureDefinition/at-core-patient)
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.type.text</t>
-  </si>
-  <si>
-    <t>Account.identifier.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.system</t>
-  </si>
-  <si>
-    <t>Account.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, an absolute URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.value</t>
-  </si>
-  <si>
-    <t>Account.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [http://hl7.org/fhir/StructureDefinition/rendered-value](http://hl7.org/fhir/extensions/StructureDefinition-rendered-value.html)). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ident-1
-</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.period</t>
-  </si>
-  <si>
-    <t>Account.identifier.period</t>
+    <t>The entity that caused the expenses</t>
+  </si>
+  <si>
+    <t>Identifies the entity which incurs the expenses. While the immediate recipients of services or goods might be entities related to the subject, the expenses were ultimately incurred by the subject of the Account.</t>
+  </si>
+  <si>
+    <t>Accounts can be applied to non-patients for tracking other non-patient related activities, such as group services (patients not tracked, and costs charged to another body), or might not be allocated.</t>
+  </si>
+  <si>
+    <t>FiveWs.subject[x]</t>
+  </si>
+  <si>
+    <t>.subject</t>
+  </si>
+  <si>
+    <t>Account.servicePeriod</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Account.identifier:Aufnahmezahl.assigner</t>
-  </si>
-  <si>
-    <t>Account.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.at/fhir/HL7ATCoreProfiles/5.0.0/StructureDefinition/at-core-organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>Account.status</t>
-  </si>
-  <si>
-    <t>active | inactive | entered-in-error | on-hold | unknown</t>
-  </si>
-  <si>
-    <t>Indicates whether the account is presently used/usable or not.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains the codes inactive and entered-in-error that mark the Account as not currently valid.</t>
-  </si>
-  <si>
-    <t>Indicates whether the account is available to be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/account-status|5.0.0</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>Account.billingStatus</t>
-  </si>
-  <si>
-    <t>Tracks the lifecycle of the account through the billing process</t>
-  </si>
-  <si>
-    <t>The BillingStatus tracks the lifecycle of the account through the billing process. It indicates how transactions are treated when they are allocated to the account.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Indicates whether the account is available to be used for billing purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/account-billing-status</t>
-  </si>
-  <si>
-    <t>Account.type</t>
-  </si>
-  <si>
-    <t>E.g. patient, expense, depreciation</t>
-  </si>
-  <si>
-    <t>Categorizes the account for reporting and searching purposes.</t>
-  </si>
-  <si>
-    <t>The usage type of this account, permits categorization of accounts.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/account-type</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>Account.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title
-</t>
-  </si>
-  <si>
-    <t>Human-readable label</t>
-  </si>
-  <si>
-    <t>Name used for the account when displaying it to humans in reports, etc.</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>.title</t>
-  </si>
-  <si>
-    <t>Account.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.at/fhir/HL7ATCoreProfiles/5.0.0/StructureDefinition/at-core-patient)
-</t>
-  </si>
-  <si>
-    <t>The entity that caused the expenses</t>
-  </si>
-  <si>
-    <t>Identifies the entity which incurs the expenses. While the immediate recipients of services or goods might be entities related to the subject, the expenses were ultimately incurred by the subject of the Account.</t>
-  </si>
-  <si>
-    <t>Accounts can be applied to non-patients for tracking other non-patient related activities, such as group services (patients not tracked, and costs charged to another body), or might not be allocated.</t>
-  </si>
-  <si>
-    <t>FiveWs.subject[x]</t>
-  </si>
-  <si>
-    <t>.subject</t>
-  </si>
-  <si>
-    <t>Account.servicePeriod</t>
   </si>
   <si>
     <t>Transaction window</t>
@@ -1130,7 +714,32 @@
     <t>Account.coverage.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Account.coverage.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Account.coverage.modifierExtension</t>
@@ -1193,6 +802,10 @@
     <t>Account.owner</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://hl7.at/fhir/HL7ATCoreProfiles/5.0.0/StructureDefinition/at-core-organization)
+</t>
+  </si>
+  <si>
     <t>Entity managing the Account</t>
   </si>
   <si>
@@ -1258,6 +871,10 @@
     <t>Account.guarantor.onHold</t>
   </si>
   <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
     <t>Credit or other hold applied</t>
   </si>
   <si>
@@ -1368,7 +985,7 @@
     <t>Diagnosis present on Admission</t>
   </si>
   <si>
-    <t>Gibt an ob die Diagnose bereits bei Aufnahme in den stationären Aufenthalt vorhanden war</t>
+    <t>Was the Diagnosis present on Admission in the related Encounter.</t>
   </si>
   <si>
     <t>Account.diagnosis.packageCode</t>
@@ -1920,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL93"/>
+  <dimension ref="A1:AL72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1929,8 +1546,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.20703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.5703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.22265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="28.96484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1948,16 +1565,16 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="68.94140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.3359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.80859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="23.6484375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1965,7 +1582,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="59.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2955,7 +2572,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>84</v>
@@ -2973,10 +2590,10 @@
         <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3050,20 +2667,20 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>84</v>
@@ -3078,13 +2695,13 @@
         <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3158,13 +2775,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>19</v>
@@ -3186,13 +2803,13 @@
         <v>19</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3266,13 +2883,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>19</v>
@@ -3294,13 +2911,13 @@
         <v>19</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3374,35 +2991,33 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C14" t="s" s="2">
         <v>158</v>
       </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>160</v>
@@ -3410,8 +3025,12 @@
       <c r="M14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>19</v>
       </c>
@@ -3459,7 +3078,7 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3477,19 +3096,19 @@
         <v>19</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3502,26 +3121,22 @@
         <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>19</v>
       </c>
@@ -3569,7 +3184,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3581,21 +3196,21 @@
         <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3603,30 +3218,32 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -3651,35 +3268,37 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>19</v>
@@ -3688,22 +3307,20 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>19</v>
       </c>
@@ -3724,13 +3341,13 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3757,13 +3374,13 @@
         <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>19</v>
@@ -3781,13 +3398,13 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>19</v>
@@ -3796,18 +3413,18 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>175</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3827,16 +3444,16 @@
         <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3863,13 +3480,13 @@
         <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>19</v>
@@ -3887,7 +3504,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3896,35 +3513,35 @@
         <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>19</v>
@@ -3933,20 +3550,18 @@
         <v>19</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>19</v>
@@ -3983,81 +3598,79 @@
         <v>19</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>19</v>
       </c>
@@ -4081,13 +3694,13 @@
         <v>19</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>19</v>
@@ -4105,13 +3718,13 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>19</v>
@@ -4120,18 +3733,18 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4154,20 +3767,18 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>19</v>
       </c>
@@ -4191,29 +3802,31 @@
         <v>19</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4228,18 +3841,18 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4250,7 +3863,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>19</v>
@@ -4259,18 +3872,20 @@
         <v>19</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -4319,44 +3934,44 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>184</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>19</v>
@@ -4368,17 +3983,15 @@
         <v>19</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -4415,49 +4028,49 @@
         <v>19</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>184</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4473,23 +4086,21 @@
         <v>19</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>19</v>
       </c>
@@ -4537,7 +4148,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4549,53 +4160,57 @@
         <v>19</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>19</v>
       </c>
@@ -4643,44 +4258,44 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>19</v>
@@ -4689,20 +4304,18 @@
         <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -4739,49 +4352,49 @@
         <v>19</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>184</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4800,26 +4413,24 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>98</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>19</v>
@@ -4861,7 +4472,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4879,15 +4490,15 @@
         <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4910,17 +4521,15 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -4969,7 +4578,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4987,15 +4596,15 @@
         <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5003,7 +4612,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>84</v>
@@ -5018,24 +4627,22 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>104</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>248</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>249</v>
+        <v>19</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>19</v>
@@ -5077,7 +4684,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5086,7 +4693,7 @@
         <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>96</v>
@@ -5095,15 +4702,15 @@
         <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5114,7 +4721,7 @@
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>19</v>
@@ -5123,21 +4730,19 @@
         <v>19</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>19</v>
       </c>
@@ -5191,10 +4796,10 @@
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>96</v>
@@ -5203,15 +4808,15 @@
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5231,23 +4836,19 @@
         <v>19</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>19</v>
       </c>
@@ -5295,7 +4896,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5304,35 +4905,35 @@
         <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>268</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>19</v>
@@ -5341,23 +4942,21 @@
         <v>19</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>19</v>
       </c>
@@ -5405,68 +5004,68 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>276</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>281</v>
+        <v>162</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>282</v>
+        <v>163</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -5479,7 +5078,7 @@
         <v>19</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>283</v>
+        <v>19</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>19</v>
@@ -5515,33 +5114,33 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>285</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5549,7 +5148,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>84</v>
@@ -5561,20 +5160,18 @@
         <v>19</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -5587,7 +5184,7 @@
         <v>19</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>291</v>
+        <v>19</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>19</v>
@@ -5623,16 +5220,16 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>293</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>96</v>
@@ -5641,15 +5238,15 @@
         <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>294</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5669,16 +5266,16 @@
         <v>19</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5729,7 +5326,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5747,15 +5344,15 @@
         <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5775,20 +5372,18 @@
         <v>19</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>19</v>
@@ -5837,7 +5432,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5855,15 +5450,15 @@
         <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>309</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5871,32 +5466,30 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>19</v>
@@ -5921,13 +5514,13 @@
         <v>19</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>314</v>
+        <v>19</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>19</v>
@@ -5945,33 +5538,33 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>282</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>317</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5991,16 +5584,16 @@
         <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>319</v>
+        <v>222</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>320</v>
+        <v>223</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6027,13 +5620,13 @@
         <v>19</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>322</v>
+        <v>19</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>323</v>
+        <v>19</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>19</v>
@@ -6051,7 +5644,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6060,35 +5653,35 @@
         <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>19</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>19</v>
@@ -6097,18 +5690,20 @@
         <v>19</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>228</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -6133,13 +5728,13 @@
         <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>327</v>
+        <v>19</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>328</v>
+        <v>19</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>19</v>
@@ -6157,65 +5752,69 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>329</v>
+        <v>19</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>330</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>19</v>
       </c>
@@ -6263,44 +5862,44 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>331</v>
+        <v>235</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>338</v>
+        <v>19</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>19</v>
@@ -6309,20 +5908,18 @@
         <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>339</v>
+        <v>243</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -6371,13 +5968,13 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>19</v>
@@ -6386,26 +5983,26 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>344</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>84</v>
@@ -6420,17 +6017,15 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -6455,13 +6050,11 @@
         <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>19</v>
@@ -6479,33 +6072,33 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>350</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6516,7 +6109,7 @@
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>19</v>
@@ -6525,20 +6118,18 @@
         <v>19</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -6587,16 +6178,16 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>96</v>
@@ -6605,15 +6196,15 @@
         <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>356</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>299</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>299</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6624,7 +6215,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>19</v>
@@ -6636,13 +6227,13 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>181</v>
+        <v>301</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6669,13 +6260,13 @@
         <v>19</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>19</v>
+        <v>304</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>19</v>
@@ -6693,44 +6284,44 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>182</v>
+        <v>299</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>184</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
@@ -6742,17 +6333,15 @@
         <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>187</v>
+        <v>306</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -6801,37 +6390,37 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>184</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6844,26 +6433,22 @@
         <v>19</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>19</v>
       </c>
@@ -6887,10 +6472,10 @@
         <v>19</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>19</v>
+        <v>311</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>19</v>
@@ -6911,7 +6496,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6923,21 +6508,21 @@
         <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6945,10 +6530,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>19</v>
@@ -6960,13 +6545,13 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>365</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7017,37 +6602,37 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>315</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>368</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>370</v>
+        <v>19</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7063,20 +6648,18 @@
         <v>19</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>371</v>
+        <v>195</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>372</v>
+        <v>222</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -7125,7 +6708,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>369</v>
+        <v>224</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7134,35 +6717,35 @@
         <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>375</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>317</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
@@ -7171,18 +6754,20 @@
         <v>19</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>304</v>
+        <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>377</v>
+        <v>228</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -7231,65 +6816,69 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>376</v>
+        <v>230</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>379</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>380</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>380</v>
+        <v>318</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>381</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>382</v>
+        <v>233</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
       </c>
@@ -7337,33 +6926,33 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>380</v>
+        <v>235</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>384</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7374,7 +6963,7 @@
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>19</v>
@@ -7386,13 +6975,13 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>352</v>
+        <v>243</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>386</v>
+        <v>320</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7443,13 +7032,13 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>19</v>
@@ -7461,23 +7050,23 @@
         <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>388</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>322</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>389</v>
+        <v>322</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>84</v>
@@ -7489,16 +7078,16 @@
         <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>238</v>
+        <v>323</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>181</v>
+        <v>325</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7525,13 +7114,11 @@
         <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>19</v>
+        <v>326</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>19</v>
@@ -7549,44 +7136,44 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>182</v>
+        <v>322</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>183</v>
+        <v>327</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>184</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>19</v>
@@ -7598,17 +7185,15 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>131</v>
+        <v>297</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>187</v>
+        <v>329</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -7657,37 +7242,37 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>190</v>
+        <v>328</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>184</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>391</v>
+        <v>331</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>391</v>
+        <v>331</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7700,26 +7285,22 @@
         <v>19</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>19</v>
       </c>
@@ -7743,10 +7324,10 @@
         <v>19</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>19</v>
+        <v>334</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>19</v>
@@ -7767,7 +7348,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7779,21 +7360,21 @@
         <v>19</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7801,10 +7382,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>19</v>
@@ -7816,13 +7397,13 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>393</v>
+        <v>180</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>394</v>
+        <v>309</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>395</v>
+        <v>336</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7849,10 +7430,10 @@
         <v>19</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>19</v>
+        <v>311</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>19</v>
@@ -7873,13 +7454,13 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>19</v>
@@ -7891,15 +7472,15 @@
         <v>19</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>396</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7910,7 +7491,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>19</v>
@@ -7919,16 +7500,16 @@
         <v>19</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>398</v>
+        <v>339</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>399</v>
+        <v>340</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7979,13 +7560,13 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>19</v>
@@ -7997,15 +7578,15 @@
         <v>19</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>400</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8016,7 +7597,7 @@
         <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>19</v>
@@ -8028,13 +7609,13 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>297</v>
+        <v>216</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>342</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8085,13 +7666,13 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>19</v>
@@ -8103,15 +7684,15 @@
         <v>19</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>404</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8122,7 +7703,7 @@
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>19</v>
@@ -8131,16 +7712,16 @@
         <v>19</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>352</v>
+        <v>195</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>406</v>
+        <v>222</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>407</v>
+        <v>223</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8191,44 +7772,44 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>405</v>
+        <v>224</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>408</v>
+        <v>19</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>19</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>19</v>
@@ -8240,15 +7821,17 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -8297,37 +7880,37 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>184</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>410</v>
+        <v>346</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>410</v>
+        <v>346</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8340,24 +7923,26 @@
         <v>19</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
       </c>
@@ -8405,7 +7990,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8423,51 +8008,47 @@
         <v>19</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>347</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>411</v>
+        <v>347</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>19</v>
       </c>
@@ -8491,13 +8072,13 @@
         <v>19</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>19</v>
+        <v>350</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>19</v>
+        <v>351</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>19</v>
@@ -8515,33 +8096,33 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8549,7 +8130,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>84</v>
@@ -8564,13 +8145,13 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>413</v>
+        <v>354</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>414</v>
+        <v>355</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8621,10 +8202,10 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>84</v>
@@ -8644,18 +8225,18 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>416</v>
+        <v>19</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>84</v>
@@ -8667,16 +8248,16 @@
         <v>19</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>417</v>
+        <v>180</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>418</v>
+        <v>357</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>419</v>
+        <v>358</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8703,11 +8284,11 @@
         <v>19</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>321</v>
+        <v>108</v>
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>420</v>
+        <v>359</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>19</v>
@@ -8725,16 +8306,16 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>421</v>
+        <v>19</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>96</v>
@@ -8748,10 +8329,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8762,7 +8343,7 @@
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>19</v>
@@ -8774,13 +8355,13 @@
         <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>423</v>
+        <v>216</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8831,16 +8412,16 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>421</v>
+        <v>19</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>96</v>
@@ -8854,10 +8435,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8868,7 +8449,7 @@
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>19</v>
@@ -8880,13 +8461,13 @@
         <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>426</v>
+        <v>222</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>427</v>
+        <v>223</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8913,13 +8494,13 @@
         <v>19</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>428</v>
+        <v>19</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>429</v>
+        <v>19</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>430</v>
+        <v>19</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>19</v>
@@ -8937,44 +8518,44 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>425</v>
+        <v>224</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>19</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>431</v>
+        <v>364</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>431</v>
+        <v>364</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>19</v>
@@ -8986,15 +8567,17 @@
         <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>432</v>
+        <v>228</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>19</v>
@@ -9043,37 +8626,37 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>431</v>
+        <v>230</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>19</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9086,22 +8669,26 @@
         <v>19</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>435</v>
+        <v>233</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>19</v>
       </c>
@@ -9125,10 +8712,10 @@
         <v>19</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>437</v>
+        <v>19</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>19</v>
@@ -9149,7 +8736,7 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>434</v>
+        <v>235</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9161,21 +8748,21 @@
         <v>19</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>438</v>
+        <v>366</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>438</v>
+        <v>366</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9186,7 +8773,7 @@
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>19</v>
@@ -9195,16 +8782,16 @@
         <v>19</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>352</v>
+        <v>180</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>439</v>
+        <v>367</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>440</v>
+        <v>368</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9231,13 +8818,13 @@
         <v>19</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>19</v>
+        <v>369</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>19</v>
+        <v>370</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>19</v>
+        <v>371</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>19</v>
@@ -9255,19 +8842,19 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>438</v>
+        <v>366</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>441</v>
+        <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>19</v>
@@ -9278,10 +8865,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>442</v>
+        <v>372</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>442</v>
+        <v>372</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9304,13 +8891,13 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>180</v>
+        <v>373</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>181</v>
+        <v>374</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9337,13 +8924,13 @@
         <v>19</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>19</v>
+        <v>369</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>19</v>
+        <v>370</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>19</v>
+        <v>375</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>19</v>
@@ -9361,7 +8948,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>182</v>
+        <v>372</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9370,35 +8957,35 @@
         <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>184</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>19</v>
@@ -9410,17 +8997,15 @@
         <v>19</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>187</v>
+        <v>377</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>19</v>
@@ -9469,69 +9054,65 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>190</v>
+        <v>376</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>184</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>444</v>
+        <v>379</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>444</v>
+        <v>379</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>131</v>
+        <v>380</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>19</v>
       </c>
@@ -9579,33 +9160,33 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>445</v>
+        <v>383</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>445</v>
+        <v>383</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9628,15 +9209,17 @@
         <v>19</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>446</v>
+        <v>385</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>19</v>
@@ -9685,7 +9268,7 @@
         <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>445</v>
+        <v>383</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9703,2242 +9286,6 @@
         <v>19</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="Y73" s="2"/>
-      <c r="Z73" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Y84" s="2"/>
-      <c r="Z84" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL93" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T16:58:21+00:00</t>
+    <t>2024-09-17T12:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="393">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T12:39:21+00:00</t>
+    <t>2024-09-17T13:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -444,6 +444,24 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Account.extension:VDASID</t>
+  </si>
+  <si>
+    <t>VDASID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-vdasid}
+</t>
+  </si>
+  <si>
+    <t>VDAS-ID - VersichertenDatenAbfrageService</t>
+  </si>
+  <si>
+    <t>Es handelt sich um eine ID, welche bei der VDAS-Abfrage durch die Krankenanstalt vom e-card System vergeben wird und von der Krankenanstalt in der Aufnahme-/Ereignisanzeige mitgeliefert werden kann. Dadurch kann das Abfrageergebnis eindeutig nachvollzogen werden.
+Das Ergebnis der VDAS-Abfrage ist im ambulanten Bereich für den Krankenversicherungsträger verbindlich. Eine Ablehnung aus versicherungsrechtlichen Gründen ist nicht möglich, sofern die Er- eignisanzeige jenem Träger aus der VDAS-Abfrage (inkl. VDAS-ID) übermittelt wurde.
+Um eine zwischenstaatliche Verrechnung zu ermöglichen ist bei zwischenstaatlichen Fällen eine Ablehnung zulässig.</t>
   </si>
   <si>
     <t>Account.extension:WorkflowStatus</t>
@@ -1537,7 +1555,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL72"/>
+  <dimension ref="A1:AL73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2572,7 +2590,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>84</v>
@@ -2680,7 +2698,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>84</v>
@@ -2994,43 +3012,41 @@
         <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D14" t="s" s="2">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>19</v>
       </c>
@@ -3078,7 +3094,7 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3096,19 +3112,19 @@
         <v>19</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3121,22 +3137,26 @@
         <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>19</v>
       </c>
@@ -3184,7 +3204,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3196,21 +3216,21 @@
         <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>170</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3218,22 +3238,22 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>172</v>
@@ -3241,9 +3261,7 @@
       <c r="M16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>174</v>
-      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -3268,13 +3286,13 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>19</v>
@@ -3292,13 +3310,13 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>19</v>
@@ -3307,18 +3325,18 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3326,7 +3344,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>84</v>
@@ -3335,21 +3353,23 @@
         <v>19</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>19</v>
@@ -3374,13 +3394,13 @@
         <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>19</v>
@@ -3398,10 +3418,10 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>84</v>
@@ -3413,18 +3433,18 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3447,13 +3467,13 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3480,7 +3500,7 @@
         <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Y18" t="s" s="2">
         <v>189</v>
@@ -3504,7 +3524,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3519,22 +3539,22 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3553,13 +3573,13 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3586,13 +3606,13 @@
         <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>19</v>
@@ -3610,7 +3630,7 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3625,29 +3645,29 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>19</v>
@@ -3659,17 +3679,15 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>19</v>
@@ -3718,13 +3736,13 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>19</v>
@@ -3733,29 +3751,29 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>19</v>
@@ -3767,16 +3785,16 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3826,13 +3844,13 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>19</v>
@@ -3841,18 +3859,18 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3863,7 +3881,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>19</v>
@@ -3875,16 +3893,16 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3934,13 +3952,13 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>19</v>
@@ -3949,18 +3967,18 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3971,7 +3989,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>19</v>
@@ -3980,10 +3998,10 @@
         <v>19</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>222</v>
@@ -3991,7 +4009,9 @@
       <c r="M23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -4040,44 +4060,44 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>19</v>
@@ -4089,17 +4109,15 @@
         <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4148,37 +4166,37 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ24" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4191,10 +4209,10 @@
         <v>19</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>131</v>
@@ -4206,11 +4224,9 @@
         <v>234</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>19</v>
       </c>
@@ -4276,7 +4292,7 @@
         <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
@@ -4288,26 +4304,26 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>238</v>
@@ -4315,8 +4331,12 @@
       <c r="M26" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
       </c>
@@ -4364,25 +4384,25 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>240</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27">
@@ -4394,11 +4414,11 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>84</v>
@@ -4413,17 +4433,15 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -4475,7 +4493,7 @@
         <v>241</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>84</v>
@@ -4490,19 +4508,19 @@
         <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4521,15 +4539,17 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -4578,7 +4598,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4721,7 +4741,7 @@
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>19</v>
@@ -4730,16 +4750,16 @@
         <v>19</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4796,7 +4816,7 @@
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>19</v>
@@ -4808,15 +4828,15 @@
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4827,7 +4847,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>19</v>
@@ -4839,13 +4859,13 @@
         <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4896,44 +4916,44 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>226</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>19</v>
@@ -4945,17 +4965,15 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -5004,37 +5022,37 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI32" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ32" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5047,10 +5065,10 @@
         <v>19</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>131</v>
@@ -5062,11 +5080,9 @@
         <v>234</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>19</v>
       </c>
@@ -5132,47 +5148,51 @@
         <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>19</v>
       </c>
@@ -5220,25 +5240,25 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>269</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
@@ -5254,7 +5274,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>84</v>
@@ -5329,7 +5349,7 @@
         <v>270</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>84</v>
@@ -5375,13 +5395,13 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5450,15 +5470,15 @@
         <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5469,7 +5489,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>19</v>
@@ -5478,16 +5498,16 @@
         <v>19</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5538,33 +5558,33 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>282</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>19</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5575,7 +5595,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>19</v>
@@ -5584,16 +5604,16 @@
         <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5644,44 +5664,44 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>226</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>19</v>
@@ -5693,17 +5713,15 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -5752,37 +5770,37 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI39" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ39" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5795,10 +5813,10 @@
         <v>19</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>131</v>
@@ -5810,11 +5828,9 @@
         <v>234</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>19</v>
       </c>
@@ -5880,47 +5896,51 @@
         <v>19</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>19</v>
       </c>
@@ -5968,41 +5988,41 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>290</v>
+        <v>19</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>84</v>
@@ -6014,10 +6034,10 @@
         <v>19</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>292</v>
@@ -6050,11 +6070,13 @@
         <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>19</v>
@@ -6072,16 +6094,16 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>295</v>
+        <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>96</v>
@@ -6095,18 +6117,18 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>84</v>
@@ -6118,16 +6140,16 @@
         <v>19</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6154,13 +6176,11 @@
         <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>19</v>
+        <v>299</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>19</v>
@@ -6178,16 +6198,16 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>96</v>
@@ -6201,10 +6221,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6215,7 +6235,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>19</v>
@@ -6227,13 +6247,13 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>180</v>
+        <v>302</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6260,13 +6280,13 @@
         <v>19</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>302</v>
+        <v>19</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>303</v>
+        <v>19</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>19</v>
@@ -6284,16 +6304,16 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>96</v>
@@ -6307,10 +6327,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6321,7 +6341,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
@@ -6333,13 +6353,13 @@
         <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6366,13 +6386,13 @@
         <v>19</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>19</v>
+        <v>308</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>19</v>
+        <v>309</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>19</v>
@@ -6390,13 +6410,13 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>19</v>
@@ -6413,10 +6433,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6427,7 +6447,7 @@
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>19</v>
@@ -6439,13 +6459,13 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>180</v>
+        <v>276</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6472,10 +6492,10 @@
         <v>19</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>311</v>
+        <v>19</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>19</v>
@@ -6496,13 +6516,13 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>19</v>
@@ -6519,10 +6539,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6542,16 +6562,16 @@
         <v>19</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6578,10 +6598,10 @@
         <v>19</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>19</v>
@@ -6602,7 +6622,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6614,7 +6634,7 @@
         <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>315</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>19</v>
@@ -6625,10 +6645,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6639,7 +6659,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>19</v>
@@ -6648,16 +6668,16 @@
         <v>19</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>222</v>
+        <v>318</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>223</v>
+        <v>319</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6708,44 +6728,44 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>19</v>
+        <v>320</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>226</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
@@ -6757,17 +6777,15 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -6816,37 +6834,37 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI49" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ49" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6859,10 +6877,10 @@
         <v>19</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>131</v>
@@ -6874,11 +6892,9 @@
         <v>234</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>19</v>
       </c>
@@ -6944,47 +6960,51 @@
         <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
       </c>
@@ -7032,41 +7052,41 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>319</v>
+        <v>240</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>290</v>
+        <v>19</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>84</v>
@@ -7078,16 +7098,16 @@
         <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>323</v>
+        <v>248</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7114,11 +7134,13 @@
         <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>326</v>
+        <v>19</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>19</v>
@@ -7136,16 +7158,16 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>327</v>
+        <v>19</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>96</v>
@@ -7159,18 +7181,18 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>84</v>
@@ -7182,10 +7204,10 @@
         <v>19</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>329</v>
@@ -7218,13 +7240,11 @@
         <v>19</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>19</v>
@@ -7242,16 +7262,16 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>96</v>
@@ -7265,10 +7285,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7279,7 +7299,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>19</v>
@@ -7291,13 +7311,13 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>180</v>
+        <v>302</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7324,10 +7344,10 @@
         <v>19</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>334</v>
+        <v>19</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>19</v>
@@ -7348,16 +7368,16 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>96</v>
@@ -7371,10 +7391,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7397,13 +7417,13 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7430,10 +7450,10 @@
         <v>19</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>19</v>
@@ -7454,7 +7474,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7477,10 +7497,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7500,16 +7520,16 @@
         <v>19</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7536,10 +7556,10 @@
         <v>19</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>19</v>
@@ -7560,7 +7580,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7583,10 +7603,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7606,16 +7626,16 @@
         <v>19</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>216</v>
+        <v>343</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7666,7 +7686,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -7689,10 +7709,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7703,7 +7723,7 @@
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>19</v>
@@ -7715,13 +7735,13 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>222</v>
+        <v>347</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>223</v>
+        <v>348</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7772,44 +7792,44 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>224</v>
+        <v>346</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>226</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>19</v>
@@ -7821,17 +7841,15 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -7880,37 +7898,37 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI59" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AG59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ59" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -7923,10 +7941,10 @@
         <v>19</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>131</v>
@@ -7938,11 +7956,9 @@
         <v>234</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>19</v>
       </c>
@@ -8008,47 +8024,51 @@
         <v>19</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>348</v>
+        <v>238</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>19</v>
       </c>
@@ -8072,13 +8092,13 @@
         <v>19</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>350</v>
+        <v>19</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>351</v>
+        <v>19</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>19</v>
@@ -8096,25 +8116,25 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>347</v>
+        <v>240</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62">
@@ -8130,7 +8150,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>84</v>
@@ -8145,13 +8165,13 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8178,13 +8198,13 @@
         <v>19</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>19</v>
+        <v>355</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>19</v>
+        <v>356</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>19</v>
@@ -8205,7 +8225,7 @@
         <v>352</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>84</v>
@@ -8225,10 +8245,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8236,7 +8256,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>84</v>
@@ -8251,13 +8271,13 @@
         <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>180</v>
+        <v>358</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8284,11 +8304,13 @@
         <v>19</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Y63" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z63" t="s" s="2">
-        <v>359</v>
+        <v>19</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>19</v>
@@ -8306,10 +8328,10 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>84</v>
@@ -8329,10 +8351,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8343,7 +8365,7 @@
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>19</v>
@@ -8355,13 +8377,13 @@
         <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8388,13 +8410,11 @@
         <v>19</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>19</v>
+        <v>364</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>19</v>
@@ -8412,13 +8432,13 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>19</v>
@@ -8435,10 +8455,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8449,7 +8469,7 @@
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>19</v>
@@ -8461,13 +8481,13 @@
         <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>222</v>
+        <v>366</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>223</v>
+        <v>367</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8518,44 +8538,44 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>224</v>
+        <v>365</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>226</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>19</v>
@@ -8567,17 +8587,15 @@
         <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>19</v>
@@ -8626,37 +8644,37 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI66" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AG66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ66" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -8669,10 +8687,10 @@
         <v>19</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>131</v>
@@ -8684,11 +8702,9 @@
         <v>234</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>19</v>
       </c>
@@ -8754,47 +8770,51 @@
         <v>19</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>367</v>
+        <v>238</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>19</v>
       </c>
@@ -8818,13 +8838,13 @@
         <v>19</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>369</v>
+        <v>19</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>370</v>
+        <v>19</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>371</v>
+        <v>19</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>19</v>
@@ -8842,33 +8862,33 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>366</v>
+        <v>240</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8891,13 +8911,13 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8924,13 +8944,13 @@
         <v>19</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>19</v>
@@ -8948,7 +8968,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -8971,10 +8991,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8997,13 +9017,13 @@
         <v>19</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9030,13 +9050,13 @@
         <v>19</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>19</v>
+        <v>374</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>19</v>
+        <v>375</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>19</v>
+        <v>380</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>19</v>
@@ -9054,7 +9074,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9077,10 +9097,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9088,7 +9108,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>84</v>
@@ -9103,13 +9123,13 @@
         <v>19</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>380</v>
+        <v>276</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9160,10 +9180,10 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>84</v>
@@ -9183,10 +9203,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9194,7 +9214,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>84</v>
@@ -9209,17 +9229,15 @@
         <v>19</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N72" t="s" s="2">
         <v>387</v>
       </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>19</v>
@@ -9268,10 +9286,10 @@
         <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>84</v>
@@ -9286,6 +9304,114 @@
         <v>19</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:24:04+00:00</t>
+    <t>2024-09-17T13:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:52:39+00:00</t>
+    <t>2024-09-17T14:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:02:22+00:00</t>
+    <t>2024-09-17T14:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:11:23+00:00</t>
+    <t>2024-09-17T14:20:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:20:09+00:00</t>
+    <t>2024-09-17T14:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:52:20+00:00</t>
+    <t>2024-09-17T17:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T17:35:28+00:00</t>
+    <t>2024-09-17T18:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:06:53+00:00</t>
+    <t>2024-09-17T18:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:22:57+00:00</t>
+    <t>2024-09-17T20:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:06:55+00:00</t>
+    <t>2024-09-17T20:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:22:56+00:00</t>
+    <t>2024-09-18T05:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T05:27:51+00:00</t>
+    <t>2024-09-19T11:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T11:50:53+00:00</t>
+    <t>2024-09-19T12:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T12:04:20+00:00</t>
+    <t>2024-09-22T15:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T15:40:07+00:00</t>
+    <t>2024-09-23T07:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T07:19:12+00:00</t>
+    <t>2024-09-23T11:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:09:48+00:00</t>
+    <t>2024-09-23T11:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:29:53+00:00</t>
+    <t>2024-09-23T11:42:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:42:54+00:00</t>
+    <t>2024-09-23T12:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T12:18:50+00:00</t>
+    <t>2024-09-23T18:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T18:28:00+00:00</t>
+    <t>2024-09-23T19:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:43:17+00:00</t>
+    <t>2024-09-23T19:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:56:54+00:00</t>
+    <t>2024-09-24T07:39:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T07:39:02+00:00</t>
+    <t>2024-09-25T11:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:00:26+00:00</t>
+    <t>2024-09-25T11:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -444,6 +444,32 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Account.extension:AnzahlVerlegungen</t>
+  </si>
+  <si>
+    <t>AnzahlVerlegungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-AnzahlVerlegungen}
+</t>
+  </si>
+  <si>
+    <t>MOPED Extension für die Anzahl der Verlegungen</t>
+  </si>
+  <si>
+    <t>Account.extension:AnzahlBeurlaubungen</t>
+  </si>
+  <si>
+    <t>AnzahlBeurlaubungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-AnzahlBeurlaubungen}
+</t>
+  </si>
+  <si>
+    <t>MOPED Extension für die Anzahl der Beurlaubungen</t>
   </si>
   <si>
     <t>Account.extension:VDASID</t>
@@ -1555,7 +1581,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL73"/>
+  <dimension ref="A1:AL75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2608,10 +2634,10 @@
         <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2685,20 +2711,20 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>84</v>
@@ -2713,13 +2739,13 @@
         <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2793,13 +2819,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>19</v>
@@ -2821,13 +2847,13 @@
         <v>19</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2901,20 +2927,20 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>84</v>
@@ -2929,13 +2955,13 @@
         <v>19</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3009,13 +3035,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>19</v>
@@ -3037,13 +3063,13 @@
         <v>19</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3117,46 +3143,44 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>19</v>
       </c>
@@ -3204,7 +3228,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3222,17 +3246,19 @@
         <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>19</v>
       </c>
@@ -3241,7 +3267,7 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>19</v>
@@ -3250,16 +3276,16 @@
         <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3310,7 +3336,7 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3322,32 +3348,32 @@
         <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>175</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>19</v>
@@ -3359,18 +3385,20 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>19</v>
       </c>
@@ -3394,13 +3422,13 @@
         <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>19</v>
@@ -3418,33 +3446,33 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>183</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3455,7 +3483,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>19</v>
@@ -3467,13 +3495,13 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3500,13 +3528,13 @@
         <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>19</v>
@@ -3524,13 +3552,13 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>19</v>
@@ -3539,18 +3567,18 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3558,7 +3586,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>84</v>
@@ -3567,21 +3595,23 @@
         <v>19</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>19</v>
@@ -3606,13 +3636,13 @@
         <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="Z19" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>19</v>
@@ -3630,10 +3660,10 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>84</v>
@@ -3645,22 +3675,22 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3679,13 +3709,13 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3712,13 +3742,13 @@
         <v>19</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>19</v>
@@ -3736,7 +3766,7 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3751,29 +3781,29 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>204</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>19</v>
@@ -3785,17 +3815,15 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>19</v>
@@ -3820,13 +3848,13 @@
         <v>19</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>19</v>
@@ -3844,13 +3872,13 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>19</v>
@@ -3859,22 +3887,22 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3893,17 +3921,15 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -3952,7 +3978,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3967,22 +3993,22 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4001,16 +4027,16 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4060,7 +4086,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4075,18 +4101,18 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4106,18 +4132,20 @@
         <v>19</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4166,7 +4194,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4175,28 +4203,28 @@
         <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4212,19 +4240,19 @@
         <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4274,7 +4302,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4286,57 +4314,53 @@
         <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>19</v>
       </c>
@@ -4384,44 +4408,44 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>129</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>19</v>
@@ -4430,18 +4454,20 @@
         <v>19</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -4490,67 +4516,69 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
       </c>
@@ -4598,33 +4626,33 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>252</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4632,7 +4660,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>84</v>
@@ -4647,13 +4675,13 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4704,10 +4732,10 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>84</v>
@@ -4722,19 +4750,19 @@
         <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4753,15 +4781,17 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -4810,7 +4840,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4828,15 +4858,15 @@
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4847,7 +4877,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>19</v>
@@ -4856,16 +4886,16 @@
         <v>19</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4916,13 +4946,13 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>19</v>
@@ -4934,15 +4964,15 @@
         <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4962,16 +4992,16 @@
         <v>19</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5022,7 +5052,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5031,28 +5061,28 @@
         <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>231</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5071,17 +5101,15 @@
         <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -5130,7 +5158,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5142,57 +5170,53 @@
         <v>19</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>231</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>19</v>
       </c>
@@ -5240,44 +5264,44 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>129</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>19</v>
@@ -5289,15 +5313,17 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -5346,65 +5372,69 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>19</v>
       </c>
@@ -5452,33 +5482,33 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>279</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5486,7 +5516,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>84</v>
@@ -5501,13 +5531,13 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5558,10 +5588,10 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>84</v>
@@ -5576,15 +5606,15 @@
         <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5595,7 +5625,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>19</v>
@@ -5604,10 +5634,10 @@
         <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>285</v>
@@ -5664,25 +5694,25 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -5713,13 +5743,13 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5770,7 +5800,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -5779,28 +5809,28 @@
         <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>231</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5816,20 +5846,18 @@
         <v>19</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -5878,7 +5906,7 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5890,57 +5918,53 @@
         <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>137</v>
+        <v>295</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>231</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>19</v>
       </c>
@@ -5988,44 +6012,44 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>129</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>19</v>
@@ -6037,15 +6061,17 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -6094,65 +6120,69 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>19</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>296</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>19</v>
       </c>
@@ -6176,11 +6206,13 @@
         <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>299</v>
+        <v>19</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>19</v>
@@ -6198,33 +6230,33 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6247,13 +6279,13 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6304,7 +6336,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6313,7 +6345,7 @@
         <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>96</v>
@@ -6327,21 +6359,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
@@ -6350,10 +6382,10 @@
         <v>19</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>185</v>
+        <v>304</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>305</v>
@@ -6386,40 +6418,38 @@
         <v>19</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y45" s="2"/>
+      <c r="Z45" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="AA45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI45" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>96</v>
@@ -6433,10 +6463,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6459,13 +6489,13 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>311</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6516,7 +6546,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6525,7 +6555,7 @@
         <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>19</v>
+        <v>308</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>96</v>
@@ -6539,10 +6569,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6565,13 +6595,13 @@
         <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6598,13 +6628,13 @@
         <v>19</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>188</v>
+        <v>315</v>
       </c>
       <c r="Y47" t="s" s="2">
         <v>316</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>19</v>
@@ -6622,7 +6652,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6645,10 +6675,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6659,7 +6689,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>19</v>
@@ -6668,16 +6698,16 @@
         <v>19</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6728,19 +6758,19 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>320</v>
+        <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>19</v>
@@ -6765,7 +6795,7 @@
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
@@ -6777,13 +6807,13 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>227</v>
+        <v>322</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>228</v>
+        <v>323</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6810,10 +6840,10 @@
         <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>19</v>
@@ -6834,37 +6864,37 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>229</v>
+        <v>321</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>231</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6880,20 +6910,18 @@
         <v>19</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>233</v>
+        <v>326</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -6942,7 +6970,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -6954,57 +6982,53 @@
         <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>137</v>
+        <v>328</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>231</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>19</v>
       </c>
@@ -7052,44 +7076,44 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>129</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>19</v>
@@ -7101,15 +7125,17 @@
         <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>325</v>
+        <v>241</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -7158,65 +7184,69 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>324</v>
+        <v>243</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>19</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>328</v>
+        <v>131</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>19</v>
       </c>
@@ -7240,11 +7270,13 @@
         <v>19</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z53" t="s" s="2">
-        <v>331</v>
+        <v>19</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>19</v>
@@ -7262,33 +7294,33 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>327</v>
+        <v>248</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7311,13 +7343,13 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7368,7 +7400,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7377,7 +7409,7 @@
         <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>96</v>
@@ -7391,21 +7423,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>19</v>
@@ -7414,10 +7446,10 @@
         <v>19</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>185</v>
+        <v>336</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>337</v>
@@ -7450,14 +7482,12 @@
         <v>19</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y55" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y55" s="2"/>
+      <c r="Z55" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>19</v>
       </c>
@@ -7474,16 +7504,16 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>19</v>
+        <v>340</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>96</v>
@@ -7497,10 +7527,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7511,7 +7541,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>19</v>
@@ -7523,13 +7553,13 @@
         <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7556,10 +7586,10 @@
         <v>19</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>19</v>
@@ -7580,16 +7610,16 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI56" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>19</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>96</v>
@@ -7603,10 +7633,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7626,16 +7656,16 @@
         <v>19</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>343</v>
+        <v>193</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7662,10 +7692,10 @@
         <v>19</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>19</v>
+        <v>347</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>19</v>
@@ -7686,7 +7716,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -7709,10 +7739,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7735,13 +7765,13 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7768,10 +7798,10 @@
         <v>19</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>19</v>
@@ -7792,7 +7822,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -7815,10 +7845,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7829,7 +7859,7 @@
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>19</v>
@@ -7838,16 +7868,16 @@
         <v>19</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>200</v>
+        <v>351</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>227</v>
+        <v>352</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>228</v>
+        <v>353</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7898,37 +7928,37 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>231</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -7947,17 +7977,15 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>233</v>
+        <v>355</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -8006,7 +8034,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8018,57 +8046,53 @@
         <v>19</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>231</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>19</v>
       </c>
@@ -8116,44 +8140,44 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>129</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>19</v>
@@ -8165,15 +8189,17 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>353</v>
+        <v>241</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>19</v>
@@ -8198,13 +8224,13 @@
         <v>19</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>355</v>
+        <v>19</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>356</v>
+        <v>19</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>19</v>
@@ -8222,65 +8248,69 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>352</v>
+        <v>243</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>19</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>358</v>
+        <v>131</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>359</v>
+        <v>246</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>19</v>
       </c>
@@ -8328,33 +8358,33 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>357</v>
+        <v>248</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8377,13 +8407,13 @@
         <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8410,9 +8440,11 @@
         <v>19</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Y64" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="Z64" t="s" s="2">
         <v>364</v>
       </c>
@@ -8432,7 +8464,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -8466,10 +8498,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>19</v>
@@ -8481,13 +8513,13 @@
         <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>221</v>
+        <v>366</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8541,10 +8573,10 @@
         <v>365</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>19</v>
@@ -8561,10 +8593,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8587,13 +8619,13 @@
         <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>227</v>
+        <v>370</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>228</v>
+        <v>371</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8620,13 +8652,11 @@
         <v>19</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>19</v>
+        <v>372</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>19</v>
@@ -8644,7 +8674,7 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>229</v>
+        <v>369</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -8653,28 +8683,28 @@
         <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>231</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -8693,17 +8723,15 @@
         <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>233</v>
+        <v>374</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>19</v>
@@ -8752,7 +8780,7 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -8764,57 +8792,53 @@
         <v>19</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>231</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>19</v>
       </c>
@@ -8862,44 +8886,44 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>129</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>19</v>
@@ -8911,15 +8935,17 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>372</v>
+        <v>241</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>19</v>
@@ -8944,13 +8970,13 @@
         <v>19</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>374</v>
+        <v>19</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>375</v>
+        <v>19</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>376</v>
+        <v>19</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>19</v>
@@ -8968,65 +8994,69 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>371</v>
+        <v>243</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>19</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>378</v>
+        <v>246</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>19</v>
       </c>
@@ -9050,13 +9080,13 @@
         <v>19</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>374</v>
+        <v>19</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>375</v>
+        <v>19</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>380</v>
+        <v>19</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>19</v>
@@ -9074,33 +9104,33 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>377</v>
+        <v>248</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9123,13 +9153,13 @@
         <v>19</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9156,13 +9186,13 @@
         <v>19</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>19</v>
+        <v>382</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>19</v>
+        <v>383</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>19</v>
+        <v>384</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>19</v>
@@ -9180,7 +9210,7 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9203,10 +9233,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9214,7 +9244,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>84</v>
@@ -9229,7 +9259,7 @@
         <v>19</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>385</v>
+        <v>193</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>386</v>
@@ -9262,13 +9292,13 @@
         <v>19</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>19</v>
+        <v>382</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>19</v>
+        <v>383</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>19</v>
@@ -9286,10 +9316,10 @@
         <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>84</v>
@@ -9309,10 +9339,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9335,7 +9365,7 @@
         <v>19</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>390</v>
@@ -9343,9 +9373,7 @@
       <c r="M73" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="N73" t="s" s="2">
-        <v>392</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>19</v>
@@ -9394,7 +9422,7 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -9412,6 +9440,220 @@
         <v>19</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:40:05+00:00</t>
+    <t>2024-09-25T11:54:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:54:18+00:00</t>
+    <t>2024-09-25T12:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T12:57:21+00:00</t>
+    <t>2024-09-25T14:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:29:33+00:00</t>
+    <t>2024-09-25T14:44:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:44:31+00:00</t>
+    <t>2024-09-26T07:10:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:10:34+00:00</t>
+    <t>2024-09-26T07:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:17:19+00:00</t>
+    <t>2024-09-26T07:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:48:16+00:00</t>
+    <t>2024-09-26T07:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:51:13+00:00</t>
+    <t>2024-09-26T08:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="406">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:50:40+00:00</t>
+    <t>2024-09-26T08:56:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -552,6 +552,22 @@
   </si>
   <si>
     <t>Anzahl der Tage, für welche kein Kostenbeitrag seitens der Krankenanstalt eingehoben wurde</t>
+  </si>
+  <si>
+    <t>Account.extension:CoverageEligibilityRequestRef</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequestRef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-CoverageEligibilityRequestRef}
+</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequest Referenz</t>
+  </si>
+  <si>
+    <t>Referenz vom Account auf den CoverageEligibilityRequest.</t>
   </si>
   <si>
     <t>Account.modifierExtension</t>
@@ -1581,7 +1597,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL75"/>
+  <dimension ref="A1:AL76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3362,43 +3378,41 @@
         <v>171</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="D17" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N17" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="O17" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>19</v>
       </c>
@@ -3446,7 +3460,7 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3464,19 +3478,19 @@
         <v>19</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3489,22 +3503,26 @@
         <v>19</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>19</v>
       </c>
@@ -3552,7 +3570,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3564,21 +3582,21 @@
         <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>183</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3586,22 +3604,22 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>185</v>
@@ -3609,9 +3627,7 @@
       <c r="M19" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>19</v>
@@ -3636,13 +3652,13 @@
         <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>19</v>
@@ -3660,13 +3676,13 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>19</v>
@@ -3675,18 +3691,18 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3694,7 +3710,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>84</v>
@@ -3703,21 +3719,23 @@
         <v>19</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>19</v>
@@ -3742,13 +3760,13 @@
         <v>19</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>19</v>
@@ -3766,10 +3784,10 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>84</v>
@@ -3781,18 +3799,18 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>19</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3815,13 +3833,13 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3848,7 +3866,7 @@
         <v>19</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Y21" t="s" s="2">
         <v>202</v>
@@ -3872,7 +3890,7 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3887,22 +3905,22 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>205</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3921,13 +3939,13 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3954,13 +3972,13 @@
         <v>19</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>19</v>
@@ -3978,7 +3996,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3993,29 +4011,29 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>19</v>
@@ -4027,17 +4045,15 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>218</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -4086,13 +4102,13 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>19</v>
@@ -4101,29 +4117,29 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>19</v>
@@ -4135,16 +4151,16 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4194,13 +4210,13 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>19</v>
@@ -4209,18 +4225,18 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4231,7 +4247,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>19</v>
@@ -4243,16 +4259,16 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4302,13 +4318,13 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>19</v>
@@ -4317,18 +4333,18 @@
         <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4339,7 +4355,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>19</v>
@@ -4348,10 +4364,10 @@
         <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>235</v>
@@ -4359,7 +4375,9 @@
       <c r="M26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -4408,44 +4426,44 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>19</v>
@@ -4457,17 +4475,15 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -4516,37 +4532,37 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ27" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4559,10 +4575,10 @@
         <v>19</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>131</v>
@@ -4574,11 +4590,9 @@
         <v>247</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>19</v>
       </c>
@@ -4644,7 +4658,7 @@
         <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>129</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
@@ -4656,26 +4670,26 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>251</v>
@@ -4683,8 +4697,12 @@
       <c r="M29" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
       </c>
@@ -4732,25 +4750,25 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>253</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
@@ -4762,11 +4780,11 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>84</v>
@@ -4781,17 +4799,15 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>259</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -4843,7 +4859,7 @@
         <v>254</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>84</v>
@@ -4858,19 +4874,19 @@
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4889,15 +4905,17 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -4946,7 +4964,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5089,7 +5107,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>19</v>
@@ -5098,16 +5116,16 @@
         <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5164,7 +5182,7 @@
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>19</v>
@@ -5176,15 +5194,15 @@
         <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5195,7 +5213,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
@@ -5207,13 +5225,13 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5264,44 +5282,44 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>239</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>19</v>
@@ -5313,17 +5331,15 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -5372,37 +5388,37 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI35" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ35" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5415,10 +5431,10 @@
         <v>19</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>131</v>
@@ -5430,11 +5446,9 @@
         <v>247</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>19</v>
       </c>
@@ -5500,47 +5514,51 @@
         <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>129</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>279</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>19</v>
       </c>
@@ -5588,25 +5606,25 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>282</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
@@ -5622,7 +5640,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>84</v>
@@ -5697,7 +5715,7 @@
         <v>283</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>84</v>
@@ -5743,13 +5761,13 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5818,15 +5836,15 @@
         <v>19</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5837,7 +5855,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>19</v>
@@ -5846,16 +5864,16 @@
         <v>19</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5906,33 +5924,33 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>295</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>19</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5943,7 +5961,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>19</v>
@@ -5952,16 +5970,16 @@
         <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>235</v>
+        <v>298</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6012,44 +6030,44 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>239</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>19</v>
@@ -6061,17 +6079,15 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -6120,37 +6136,37 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI42" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ42" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6163,10 +6179,10 @@
         <v>19</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>131</v>
@@ -6178,11 +6194,9 @@
         <v>247</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>19</v>
       </c>
@@ -6248,47 +6262,51 @@
         <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>129</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>19</v>
       </c>
@@ -6336,41 +6354,41 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>303</v>
+        <v>19</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>84</v>
@@ -6382,10 +6400,10 @@
         <v>19</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>305</v>
@@ -6418,11 +6436,13 @@
         <v>19</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y45" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z45" t="s" s="2">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>19</v>
@@ -6440,16 +6460,16 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>96</v>
@@ -6463,18 +6483,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>19</v>
+        <v>308</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>84</v>
@@ -6486,16 +6506,16 @@
         <v>19</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6522,13 +6542,11 @@
         <v>19</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>19</v>
@@ -6546,16 +6564,16 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>96</v>
@@ -6569,10 +6587,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6583,7 +6601,7 @@
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>19</v>
@@ -6595,13 +6613,13 @@
         <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>193</v>
+        <v>315</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6628,13 +6646,13 @@
         <v>19</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>317</v>
+        <v>19</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>19</v>
@@ -6652,16 +6670,16 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>96</v>
@@ -6675,10 +6693,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6689,7 +6707,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>19</v>
@@ -6701,13 +6719,13 @@
         <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6734,13 +6752,13 @@
         <v>19</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>19</v>
+        <v>320</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>19</v>
+        <v>321</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>19</v>
+        <v>322</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>19</v>
@@ -6758,13 +6776,13 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>19</v>
@@ -6781,10 +6799,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6795,7 +6813,7 @@
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
@@ -6807,13 +6825,13 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6840,10 +6858,10 @@
         <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>324</v>
+        <v>19</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>19</v>
@@ -6864,13 +6882,13 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>19</v>
@@ -6887,10 +6905,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6910,16 +6928,16 @@
         <v>19</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6946,10 +6964,10 @@
         <v>19</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>19</v>
+        <v>329</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>19</v>
@@ -6970,7 +6988,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -6982,7 +7000,7 @@
         <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>328</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>19</v>
@@ -6993,10 +7011,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7007,7 +7025,7 @@
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>19</v>
@@ -7016,16 +7034,16 @@
         <v>19</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>235</v>
+        <v>331</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>236</v>
+        <v>332</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7076,44 +7094,44 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>237</v>
+        <v>330</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>19</v>
+        <v>333</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>239</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>19</v>
@@ -7125,17 +7143,15 @@
         <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -7184,37 +7200,37 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI52" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ52" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7227,10 +7243,10 @@
         <v>19</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>131</v>
@@ -7242,11 +7258,9 @@
         <v>247</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>19</v>
       </c>
@@ -7312,47 +7326,51 @@
         <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>129</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
       </c>
@@ -7400,41 +7418,41 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>303</v>
+        <v>19</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>84</v>
@@ -7446,16 +7464,16 @@
         <v>19</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>336</v>
+        <v>261</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7482,11 +7500,13 @@
         <v>19</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>339</v>
+        <v>19</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>19</v>
@@ -7504,16 +7524,16 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>340</v>
+        <v>19</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>96</v>
@@ -7527,18 +7547,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>19</v>
+        <v>308</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>84</v>
@@ -7550,10 +7570,10 @@
         <v>19</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>342</v>
@@ -7586,13 +7606,11 @@
         <v>19</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>19</v>
+        <v>344</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>19</v>
@@ -7610,16 +7628,16 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>96</v>
@@ -7633,10 +7651,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7647,7 +7665,7 @@
         <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>19</v>
@@ -7659,13 +7677,13 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>193</v>
+        <v>315</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7692,10 +7710,10 @@
         <v>19</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>19</v>
@@ -7716,16 +7734,16 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>19</v>
+        <v>345</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>96</v>
@@ -7739,10 +7757,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7765,13 +7783,13 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7798,10 +7816,10 @@
         <v>19</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>19</v>
@@ -7822,7 +7840,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -7845,10 +7863,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7868,16 +7886,16 @@
         <v>19</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>351</v>
+        <v>198</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7904,10 +7922,10 @@
         <v>19</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>19</v>
+        <v>329</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>19</v>
@@ -7928,7 +7946,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -7951,10 +7969,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7974,16 +7992,16 @@
         <v>19</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>229</v>
+        <v>356</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8034,7 +8052,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8057,10 +8075,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8071,7 +8089,7 @@
         <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>19</v>
@@ -8083,13 +8101,13 @@
         <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>235</v>
+        <v>360</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>236</v>
+        <v>361</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8140,44 +8158,44 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>237</v>
+        <v>359</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>239</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>19</v>
@@ -8189,17 +8207,15 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>19</v>
@@ -8248,37 +8264,37 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI62" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ62" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8291,10 +8307,10 @@
         <v>19</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>131</v>
@@ -8306,11 +8322,9 @@
         <v>247</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>19</v>
       </c>
@@ -8376,47 +8390,51 @@
         <v>19</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>129</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>361</v>
+        <v>251</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>19</v>
       </c>
@@ -8440,13 +8458,13 @@
         <v>19</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>363</v>
+        <v>19</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>19</v>
@@ -8464,25 +8482,25 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>360</v>
+        <v>253</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65">
@@ -8498,7 +8516,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>84</v>
@@ -8513,13 +8531,13 @@
         <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8546,13 +8564,13 @@
         <v>19</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>19</v>
+        <v>368</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>19</v>
+        <v>369</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>19</v>
@@ -8573,7 +8591,7 @@
         <v>365</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>84</v>
@@ -8593,10 +8611,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8604,7 +8622,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>84</v>
@@ -8619,13 +8637,13 @@
         <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>193</v>
+        <v>371</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8652,11 +8670,13 @@
         <v>19</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Y66" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z66" t="s" s="2">
-        <v>372</v>
+        <v>19</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>19</v>
@@ -8674,10 +8694,10 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>84</v>
@@ -8697,10 +8717,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8711,7 +8731,7 @@
         <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>19</v>
@@ -8723,13 +8743,13 @@
         <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8756,13 +8776,11 @@
         <v>19</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>19</v>
@@ -8780,13 +8798,13 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>19</v>
@@ -8803,10 +8821,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8817,7 +8835,7 @@
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>19</v>
@@ -8829,13 +8847,13 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>235</v>
+        <v>379</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>236</v>
+        <v>380</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8886,44 +8904,44 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>237</v>
+        <v>378</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>239</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>19</v>
@@ -8935,17 +8953,15 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>19</v>
@@ -8994,37 +9010,37 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI69" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AG69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ69" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9037,10 +9053,10 @@
         <v>19</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>131</v>
@@ -9052,11 +9068,9 @@
         <v>247</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>19</v>
       </c>
@@ -9122,47 +9136,51 @@
         <v>19</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>129</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>380</v>
+        <v>251</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>19</v>
       </c>
@@ -9186,13 +9204,13 @@
         <v>19</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>382</v>
+        <v>19</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>383</v>
+        <v>19</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>384</v>
+        <v>19</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>19</v>
@@ -9210,33 +9228,33 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>379</v>
+        <v>253</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9259,13 +9277,13 @@
         <v>19</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9292,13 +9310,13 @@
         <v>19</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>19</v>
@@ -9316,7 +9334,7 @@
         <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9339,10 +9357,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9365,13 +9383,13 @@
         <v>19</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9398,13 +9416,13 @@
         <v>19</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>19</v>
+        <v>387</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>19</v>
+        <v>393</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>19</v>
@@ -9422,7 +9440,7 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -9445,10 +9463,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9456,7 +9474,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>84</v>
@@ -9471,13 +9489,13 @@
         <v>19</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>393</v>
+        <v>289</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9528,10 +9546,10 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>84</v>
@@ -9551,10 +9569,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9562,7 +9580,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>84</v>
@@ -9577,17 +9595,15 @@
         <v>19</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N75" t="s" s="2">
         <v>400</v>
       </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>19</v>
@@ -9636,10 +9652,10 @@
         <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>84</v>
@@ -9654,6 +9670,114 @@
         <v>19</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:56:22+00:00</t>
+    <t>2024-09-26T09:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="411">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:55:47+00:00</t>
+    <t>2024-09-26T09:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -568,6 +568,22 @@
   </si>
   <si>
     <t>Referenz vom Account auf den CoverageEligibilityRequest.</t>
+  </si>
+  <si>
+    <t>Account.extension:ClaimRef</t>
+  </si>
+  <si>
+    <t>ClaimRef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-ClaimRef}
+</t>
+  </si>
+  <si>
+    <t>Claim Referenz</t>
+  </si>
+  <si>
+    <t>Referenz vom Account auf den Claim.</t>
   </si>
   <si>
     <t>Account.modifierExtension</t>
@@ -1597,7 +1613,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL76"/>
+  <dimension ref="A1:AL77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3486,43 +3502,41 @@
         <v>176</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="D18" t="s" s="2">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N18" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="O18" t="s" s="2">
-        <v>181</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>19</v>
       </c>
@@ -3570,7 +3584,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3588,19 +3602,19 @@
         <v>19</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3613,22 +3627,26 @@
         <v>19</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>19</v>
       </c>
@@ -3676,7 +3694,7 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3688,21 +3706,21 @@
         <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>188</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3710,22 +3728,22 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>190</v>
@@ -3733,9 +3751,7 @@
       <c r="M20" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>19</v>
@@ -3760,13 +3776,13 @@
         <v>19</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>19</v>
@@ -3784,13 +3800,13 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>19</v>
@@ -3799,18 +3815,18 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3818,7 +3834,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>84</v>
@@ -3827,21 +3843,23 @@
         <v>19</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>19</v>
@@ -3866,13 +3884,13 @@
         <v>19</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>19</v>
@@ -3890,10 +3908,10 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>84</v>
@@ -3905,18 +3923,18 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>19</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3939,13 +3957,13 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3972,7 +3990,7 @@
         <v>19</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Y22" t="s" s="2">
         <v>207</v>
@@ -3996,7 +4014,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4011,22 +4029,22 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>210</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4045,13 +4063,13 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4078,13 +4096,13 @@
         <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>19</v>
@@ -4102,7 +4120,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4117,29 +4135,29 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>19</v>
@@ -4151,17 +4169,15 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4210,13 +4226,13 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>19</v>
@@ -4225,29 +4241,29 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>19</v>
@@ -4259,16 +4275,16 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4318,13 +4334,13 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>19</v>
@@ -4333,18 +4349,18 @@
         <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4355,7 +4371,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>19</v>
@@ -4367,16 +4383,16 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4426,13 +4442,13 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>19</v>
@@ -4441,18 +4457,18 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4463,7 +4479,7 @@
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>19</v>
@@ -4472,10 +4488,10 @@
         <v>19</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>240</v>
@@ -4483,7 +4499,9 @@
       <c r="M27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -4532,44 +4550,44 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>244</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>19</v>
@@ -4581,17 +4599,15 @@
         <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -4640,37 +4656,37 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ28" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4683,10 +4699,10 @@
         <v>19</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>131</v>
@@ -4698,11 +4714,9 @@
         <v>252</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>19</v>
       </c>
@@ -4768,7 +4782,7 @@
         <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
@@ -4780,26 +4794,26 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>255</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>256</v>
@@ -4807,8 +4821,12 @@
       <c r="M30" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
       </c>
@@ -4856,25 +4874,25 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>258</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
@@ -4886,11 +4904,11 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>84</v>
@@ -4905,17 +4923,15 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>264</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -4967,7 +4983,7 @@
         <v>259</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>84</v>
@@ -4982,19 +4998,19 @@
         <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5013,15 +5029,17 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -5070,7 +5088,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5213,7 +5231,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
@@ -5222,16 +5240,16 @@
         <v>19</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5288,7 +5306,7 @@
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>19</v>
@@ -5300,15 +5318,15 @@
         <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5319,7 +5337,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>19</v>
@@ -5331,13 +5349,13 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5388,44 +5406,44 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>244</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>19</v>
@@ -5437,17 +5455,15 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>19</v>
@@ -5496,37 +5512,37 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI36" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ36" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5539,10 +5555,10 @@
         <v>19</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>131</v>
@@ -5554,11 +5570,9 @@
         <v>252</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>19</v>
       </c>
@@ -5624,47 +5638,51 @@
         <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>284</v>
+        <v>131</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>19</v>
       </c>
@@ -5712,25 +5730,25 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>287</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -5746,7 +5764,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>84</v>
@@ -5821,7 +5839,7 @@
         <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>84</v>
@@ -5867,13 +5885,13 @@
         <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5942,15 +5960,15 @@
         <v>19</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5961,7 +5979,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>19</v>
@@ -5970,16 +5988,16 @@
         <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6030,33 +6048,33 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>300</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>19</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6067,7 +6085,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>19</v>
@@ -6076,16 +6094,16 @@
         <v>19</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6136,44 +6154,44 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>244</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>19</v>
@@ -6185,17 +6203,15 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -6244,37 +6260,37 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI43" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6287,10 +6303,10 @@
         <v>19</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>131</v>
@@ -6302,11 +6318,9 @@
         <v>252</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>19</v>
       </c>
@@ -6372,47 +6386,51 @@
         <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>261</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>19</v>
       </c>
@@ -6460,41 +6478,41 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>84</v>
@@ -6506,10 +6524,10 @@
         <v>19</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>310</v>
@@ -6542,11 +6560,13 @@
         <v>19</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="Y46" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z46" t="s" s="2">
-        <v>312</v>
+        <v>19</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>19</v>
@@ -6564,16 +6584,16 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>313</v>
+        <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>96</v>
@@ -6587,18 +6607,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>84</v>
@@ -6610,16 +6630,16 @@
         <v>19</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6646,13 +6666,11 @@
         <v>19</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>19</v>
@@ -6670,16 +6688,16 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>96</v>
@@ -6693,10 +6711,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6707,7 +6725,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>19</v>
@@ -6719,13 +6737,13 @@
         <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>198</v>
+        <v>320</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6752,13 +6770,13 @@
         <v>19</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>320</v>
+        <v>19</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>322</v>
+        <v>19</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>19</v>
@@ -6776,16 +6794,16 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>19</v>
+        <v>318</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>96</v>
@@ -6799,10 +6817,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6813,7 +6831,7 @@
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
@@ -6825,13 +6843,13 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>289</v>
+        <v>203</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6858,13 +6876,13 @@
         <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>19</v>
+        <v>325</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>19</v>
+        <v>326</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>19</v>
@@ -6882,13 +6900,13 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>19</v>
@@ -6905,10 +6923,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6919,7 +6937,7 @@
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>19</v>
@@ -6931,13 +6949,13 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>198</v>
+        <v>294</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6964,10 +6982,10 @@
         <v>19</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>329</v>
+        <v>19</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>19</v>
@@ -6988,13 +7006,13 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>19</v>
@@ -7011,10 +7029,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7034,16 +7052,16 @@
         <v>19</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7070,10 +7088,10 @@
         <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>19</v>
+        <v>334</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>19</v>
@@ -7094,7 +7112,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7106,7 +7124,7 @@
         <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>333</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
@@ -7117,10 +7135,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7131,7 +7149,7 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>19</v>
@@ -7140,16 +7158,16 @@
         <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>241</v>
+        <v>337</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7200,44 +7218,44 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>242</v>
+        <v>335</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>19</v>
+        <v>338</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>244</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>19</v>
@@ -7249,17 +7267,15 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -7308,37 +7324,37 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI53" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ53" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7351,10 +7367,10 @@
         <v>19</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>131</v>
@@ -7366,11 +7382,9 @@
         <v>252</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>19</v>
       </c>
@@ -7436,47 +7450,51 @@
         <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>261</v>
+        <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>338</v>
+        <v>256</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>19</v>
       </c>
@@ -7524,41 +7542,41 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>337</v>
+        <v>258</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>84</v>
@@ -7570,16 +7588,16 @@
         <v>19</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>341</v>
+        <v>266</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7606,11 +7624,13 @@
         <v>19</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z56" t="s" s="2">
-        <v>344</v>
+        <v>19</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>19</v>
@@ -7628,16 +7648,16 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>345</v>
+        <v>19</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>96</v>
@@ -7651,18 +7671,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>84</v>
@@ -7674,10 +7694,10 @@
         <v>19</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>347</v>
@@ -7710,13 +7730,11 @@
         <v>19</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>19</v>
+        <v>349</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>19</v>
@@ -7734,16 +7752,16 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>96</v>
@@ -7757,10 +7775,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7771,7 +7789,7 @@
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>19</v>
@@ -7783,13 +7801,13 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>198</v>
+        <v>320</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7816,10 +7834,10 @@
         <v>19</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>352</v>
+        <v>19</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>19</v>
@@ -7840,16 +7858,16 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>19</v>
+        <v>350</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>96</v>
@@ -7863,10 +7881,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7889,13 +7907,13 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7922,10 +7940,10 @@
         <v>19</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>19</v>
@@ -7946,7 +7964,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -7969,10 +7987,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7992,16 +8010,16 @@
         <v>19</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>356</v>
+        <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8028,10 +8046,10 @@
         <v>19</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>19</v>
+        <v>334</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>19</v>
@@ -8052,7 +8070,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8075,10 +8093,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8098,16 +8116,16 @@
         <v>19</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>234</v>
+        <v>361</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8158,7 +8176,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8181,10 +8199,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8195,7 +8213,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>19</v>
@@ -8207,13 +8225,13 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>240</v>
+        <v>365</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>241</v>
+        <v>366</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8264,44 +8282,44 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>242</v>
+        <v>364</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>244</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>19</v>
@@ -8313,17 +8331,15 @@
         <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>19</v>
@@ -8372,37 +8388,37 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI63" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AG63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ63" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8415,10 +8431,10 @@
         <v>19</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>131</v>
@@ -8430,11 +8446,9 @@
         <v>252</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>19</v>
       </c>
@@ -8500,47 +8514,51 @@
         <v>19</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>366</v>
+        <v>256</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>19</v>
       </c>
@@ -8564,13 +8582,13 @@
         <v>19</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>368</v>
+        <v>19</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>369</v>
+        <v>19</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>19</v>
@@ -8588,25 +8606,25 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>365</v>
+        <v>258</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
@@ -8622,7 +8640,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>84</v>
@@ -8637,13 +8655,13 @@
         <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8670,13 +8688,13 @@
         <v>19</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>19</v>
+        <v>373</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>19</v>
+        <v>374</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>19</v>
@@ -8697,7 +8715,7 @@
         <v>370</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>84</v>
@@ -8717,10 +8735,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8728,7 +8746,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>84</v>
@@ -8743,13 +8761,13 @@
         <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>198</v>
+        <v>376</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8776,11 +8794,13 @@
         <v>19</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Y67" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z67" t="s" s="2">
-        <v>377</v>
+        <v>19</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>19</v>
@@ -8798,10 +8818,10 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>84</v>
@@ -8821,10 +8841,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8835,7 +8855,7 @@
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>19</v>
@@ -8847,13 +8867,13 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8880,13 +8900,11 @@
         <v>19</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>19</v>
+        <v>382</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>19</v>
@@ -8904,13 +8922,13 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>19</v>
@@ -8927,10 +8945,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8941,7 +8959,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>19</v>
@@ -8953,13 +8971,13 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>240</v>
+        <v>384</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>241</v>
+        <v>385</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9010,44 +9028,44 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>242</v>
+        <v>383</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>244</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>19</v>
@@ -9059,17 +9077,15 @@
         <v>19</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>19</v>
@@ -9118,37 +9134,37 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI70" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AG70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ70" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9161,10 +9177,10 @@
         <v>19</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>131</v>
@@ -9176,11 +9192,9 @@
         <v>252</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>19</v>
       </c>
@@ -9246,47 +9260,51 @@
         <v>19</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>385</v>
+        <v>256</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>19</v>
       </c>
@@ -9310,13 +9328,13 @@
         <v>19</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>388</v>
+        <v>19</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>389</v>
+        <v>19</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>19</v>
@@ -9334,33 +9352,33 @@
         <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>384</v>
+        <v>258</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9383,13 +9401,13 @@
         <v>19</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9416,13 +9434,13 @@
         <v>19</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>19</v>
@@ -9440,7 +9458,7 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -9463,10 +9481,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9489,13 +9507,13 @@
         <v>19</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>289</v>
+        <v>203</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9522,13 +9540,13 @@
         <v>19</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>19</v>
+        <v>392</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>19</v>
+        <v>393</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>19</v>
+        <v>398</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>19</v>
@@ -9546,7 +9564,7 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -9569,10 +9587,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9580,7 +9598,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>84</v>
@@ -9595,13 +9613,13 @@
         <v>19</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>398</v>
+        <v>294</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9652,10 +9670,10 @@
         <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>84</v>
@@ -9675,10 +9693,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9686,7 +9704,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>84</v>
@@ -9701,17 +9719,15 @@
         <v>19</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N76" t="s" s="2">
         <v>405</v>
       </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>19</v>
@@ -9760,10 +9776,10 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>84</v>
@@ -9778,6 +9794,114 @@
         <v>19</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:59:14+00:00</t>
+    <t>2024-09-26T10:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T10:56:09+00:00</t>
+    <t>2024-09-26T13:32:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:32:53+00:00</t>
+    <t>2024-09-26T13:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:57:34+00:00</t>
+    <t>2024-09-27T07:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T07:18:42+00:00</t>
+    <t>2024-09-30T06:58:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T06:58:27+00:00</t>
+    <t>2024-09-30T08:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:02:36+00:00</t>
+    <t>2024-09-30T08:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:10:10+00:00</t>
+    <t>2024-09-30T08:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:14:13+00:00</t>
+    <t>2024-09-30T08:48:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:48:22+00:00</t>
+    <t>2024-09-30T09:04:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T09:04:34+00:00</t>
+    <t>2024-09-30T10:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T10:20:26+00:00</t>
+    <t>2024-09-30T12:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T12:24:06+00:00</t>
+    <t>2024-09-30T18:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T18:33:40+00:00</t>
+    <t>2024-10-01T09:38:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T09:38:16+00:00</t>
+    <t>2024-10-01T12:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T12:31:57+00:00</t>
+    <t>2024-10-07T08:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T08:22:28+00:00</t>
+    <t>2024-10-11T08:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T08:15:28+00:00</t>
+    <t>2024-10-11T09:22:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T09:22:23+00:00</t>
+    <t>2024-10-23T07:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T07:34:13+00:00</t>
+    <t>2024-10-23T11:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T11:03:56+00:00</t>
+    <t>2024-10-24T12:38:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T12:38:05+00:00</t>
+    <t>2024-10-24T13:32:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:32:35+00:00</t>
+    <t>2024-10-24T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:59:53+00:00</t>
+    <t>2024-10-24T14:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T14:28:41+00:00</t>
+    <t>2024-10-24T17:45:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:45:49+00:00</t>
+    <t>2024-10-24T18:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:34:10+00:00</t>
+    <t>2024-10-24T19:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
